--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukebaxter/Downloads/melatonin/analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/lady4565_ox_ac_uk/Documents/for_cooper/melatonin/scoping_review/manuscript/v0.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51CDCF8-018F-1A49-8A9E-C9217B80E15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0923174F-C955-264B-9BF1-DF8E0970BE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B1355F0-A1C9-9846-9445-B23EA9D7C320}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{97CA2153-06EF-934C-B1E6-B34ADD028EAE}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{97CA2153-06EF-934C-B1E6-B34ADD028EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="data_extraction_form" sheetId="4" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="1172">
   <si>
     <t>Abdelgadir (2018)</t>
   </si>
@@ -2819,9 +2819,6 @@
     <t>polysomnography, measurement of endogenous melatonin</t>
   </si>
   <si>
-    <t>sleep diary, questionnaire, actigraphy</t>
-  </si>
-  <si>
     <t>measurement of endogenous melatonin</t>
   </si>
   <si>
@@ -3741,58 +3738,10 @@
 pigment changes, perspiration, regression of development, visual disturbance</t>
   </si>
   <si>
-    <t xml:space="preserve">drowsiness, fatigue, sleep related problems </t>
-  </si>
-  <si>
-    <t>nightmares</t>
-  </si>
-  <si>
-    <t>headaches/migraines, infections, agitation, urinary issues</t>
-  </si>
-  <si>
-    <t>headaches/migraines, fatigue, nightmares</t>
-  </si>
-  <si>
-    <t>dizziness, nausea, headaches/migraines</t>
-  </si>
-  <si>
-    <t>headaches/migraines, hypothermia, depression/mood changes, gastrointestinal problems, dizziness, generalised epilepsy, elevated phosphatase levels</t>
-  </si>
-  <si>
-    <t>headaches/migraines, depression/mood changes, dizziness</t>
-  </si>
-  <si>
     <t>not listed</t>
   </si>
   <si>
-    <t>fatigue, diarrhoea, vomiting, agitation, seizures</t>
-  </si>
-  <si>
-    <t>headaches/migraines, drowsiness, hypotension, hypertension, gastrointestinal problems, skin irritation, depression/mood changes</t>
-  </si>
-  <si>
     <t>not recorded</t>
-  </si>
-  <si>
-    <t>headaches/migraines, nausea, ocular problems, depression/mood changes, cognition problems, gastrointestinal problems</t>
-  </si>
-  <si>
-    <t>developmental/behavioural changes, drowsiness, urinary issues, fatigue, headaches/migraines, dizziness, diarrhoea, sleep related problems, agitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fatigue, headaches/migraines, gastrointestinal problems, generalised epilepsy </t>
-  </si>
-  <si>
-    <t>headaches/migraines, dizziness, vomiting, nausea</t>
-  </si>
-  <si>
-    <t>headaches/migraines, dizziness, nausea</t>
-  </si>
-  <si>
-    <t>gastrointestinal problems, agitation, developmental/behavioural changes, respiratory issues, infections, confusion, diarrhoea, drowsiness, depression/mood changes, dizziness, seizures, skin irritation, hypothermia, fatigue, headaches/migraines, hangover, tremors, nausea, vomiting, nightmares, sleep related problems, ocular problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nightmares, skin irritation, seizures, fatigue, headaches/migraines, agitation, dizziness, gastrointestinal problems, nose bleeds, diarrhoea, depression/mood changes, sleep related problems, urinary issues, infections, reduced alertness, sore throat/earaches, drowsiness, vomiting, confusion, respiratory issues, tremors   </t>
   </si>
   <si>
     <t>Title of the paper, as written on the original publication.</t>
@@ -4488,9 +4437,6 @@
     <t>60.7-66.3</t>
   </si>
   <si>
-    <t>headaches/migraines, drowsiness, dizziness, fatigue, nausea, gastrointestinal problems</t>
-  </si>
-  <si>
     <t>-0.51</t>
   </si>
   <si>
@@ -4526,9 +4472,6 @@
   </si>
   <si>
     <t>headaches, migraines</t>
-  </si>
-  <si>
-    <t>headaches/migraines</t>
   </si>
   <si>
     <t>&gt;=6*</t>
@@ -4558,9 +4501,6 @@
     <t>Sleep efficacy</t>
   </si>
   <si>
-    <t>developmental/behavioural changes, pain, falls, gastrointestinal problems, infections, respiratory issues, skin irritation, urinary issues, drowsiness, agitation, headaches/migraines, tremors</t>
-  </si>
-  <si>
     <t>Zhang (2019)</t>
   </si>
   <si>
@@ -4636,9 +4576,6 @@
     <t xml:space="preserve">polysomnography, actigraphy </t>
   </si>
   <si>
-    <t>headaches/migraines, dizziness, nausea, drowsiness</t>
-  </si>
-  <si>
     <t xml:space="preserve">polysomnography, actigraphy,  </t>
   </si>
   <si>
@@ -4651,19 +4588,6 @@
     <t>"Nevertheless, our main findings concern results from the meta-analysis that showed a low heterogeneity based on I2 within the included articles and a low risk of publication bias." - publication bias outcome seems to have been calculated but funnel plot was not provided; results - Fixed and random effects provided, random effects result recorded.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">fatigue, depression/mood changes, gastrointestinal problems, agitation, diarrhoea, drowsiness, dizziness, headaches/migraines, tremors, nausea, vomiting, nightmares, skin irritation, respiratory issues, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>infections</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">"headache, fatigue, bad dreams" or "No differences in side effects were found" or "Reduced side effects" </t>
   </si>
   <si>
@@ -4671,6 +4595,75 @@
   </si>
   <si>
     <t>Mohammadi 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSQI </t>
+  </si>
+  <si>
+    <t>sleep diary, PSQI, actigraphy</t>
+  </si>
+  <si>
+    <t>Fatigue, Gastrointestinal problems, Vomiting, Agitation, Seizures</t>
+  </si>
+  <si>
+    <t>Headaches/migraines, Drowsiness, Hypotension, Hypertension, Gastrointestinal problems, Skin irritation, Mood changes</t>
+  </si>
+  <si>
+    <t>Headaches/migraines, dizziness, Vomiting, Nausea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nightmares, Skin irritation, Seizures, Fatigue, Headaches/migraines, Agitation, dizziness, Gastrointestinal problems, Nose bleeds, Gastrointestinal problems, Mood changes, Sleep related problems, Urinary issues, Infections, Reduced alertness, Sore throat/earaches, Drowsiness, Vomiting, Confusion, Respiratory issues, Tremors   </t>
+  </si>
+  <si>
+    <t>Headaches/migraines, dizziness, Nausea, Drowsiness</t>
+  </si>
+  <si>
+    <t>Headaches/migraines, dizziness, Nausea</t>
+  </si>
+  <si>
+    <t>Headaches/migraines, Nausea, Ocular problems, Mood changes, Cognition problems, Gastrointestinal problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drowsiness, Fatigue, Sleep related problems </t>
+  </si>
+  <si>
+    <t>Nightmares</t>
+  </si>
+  <si>
+    <t>Headaches/migraines, Infections, Agitation, Urinary issues</t>
+  </si>
+  <si>
+    <t>Headaches/migraines, Drowsiness, dizziness, Fatigue, Nausea, Gastrointestinal problems</t>
+  </si>
+  <si>
+    <t>Fatigue, Mood changes, Gastrointestinal problems, Agitation, Gastrointestinal problems, Drowsiness, dizziness, Headaches/migraines, Tremors, Nausea, Vomiting, Nightmares, Skin irritation, Respiratory issues, Infections</t>
+  </si>
+  <si>
+    <t>Gastrointestinal problems, Agitation, Developmental/behavioural changes, Respiratory issues, Infections, Confusion, Gastrointestinal problems, Drowsiness, Mood changes, dizziness, Seizures, Skin irritation, Hypothermia, Fatigue, Headaches/migraines, Hangover, Tremors, Nausea, Vomiting, Nightmares, Sleep related problems, Ocular problems</t>
+  </si>
+  <si>
+    <t>Developmental/behavioural changes, Drowsiness, Urinary issues, Fatigue, Headaches/migraines, dizziness, Gastrointestinal problems, Sleep related problems, Agitation</t>
+  </si>
+  <si>
+    <t>Headaches/migraines</t>
+  </si>
+  <si>
+    <t>Headaches/migraines, Fatigue, Nightmares</t>
+  </si>
+  <si>
+    <t>dizziness, Nausea, Headaches/migraines</t>
+  </si>
+  <si>
+    <t>Headaches/migraines, Hypothermia, Mood changes, Gastrointestinal problems, dizziness, Generalised epilepsy, Elevated phosphatase levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatigue, Headaches/migraines, Gastrointestinal problems, Generalised epilepsy </t>
+  </si>
+  <si>
+    <t>Developmental/behavioural changes, Pain, Falls, Gastrointestinal problems, Infections, Respiratory issues, Skin irritation, Urinary issues, Drowsiness, Agitation, Headaches/migraines, Tremors</t>
+  </si>
+  <si>
+    <t>Headaches/migraines, Mood changes, dizziness</t>
   </si>
 </sst>
 </file>
@@ -5155,18 +5148,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5175,8 +5162,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5543,11 +5536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20352CB2-AF4B-3D4F-97A7-34611405CC88}">
-  <dimension ref="A1:AN206"/>
+  <dimension ref="A1:AN207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A207" sqref="A207:XFD207"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5676,7 +5669,7 @@
         <v>660</v>
       </c>
       <c r="AC1" s="53" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AD1" s="53" t="s">
         <v>657</v>
@@ -5694,13 +5687,13 @@
         <v>634</v>
       </c>
       <c r="AI1" s="50" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AJ1" s="50" t="s">
+        <v>990</v>
+      </c>
+      <c r="AK1" s="50" t="s">
         <v>991</v>
-      </c>
-      <c r="AK1" s="50" t="s">
-        <v>992</v>
       </c>
       <c r="AL1" s="55" t="s">
         <v>658</v>
@@ -5710,7 +5703,7 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="64">
+      <c r="A2" s="67">
         <v>1</v>
       </c>
       <c r="B2" s="42">
@@ -5768,7 +5761,7 @@
         <v>5</v>
       </c>
       <c r="T2" s="43" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U2" s="42" t="s">
         <v>668</v>
@@ -5810,24 +5803,24 @@
       <c r="AH2" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="AI2" s="64" t="s">
-        <v>972</v>
-      </c>
-      <c r="AJ2" s="64" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AK2" s="64" t="s">
-        <v>1026</v>
+      <c r="AI2" s="67" t="s">
+        <v>971</v>
+      </c>
+      <c r="AJ2" s="67" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AK2" s="67" t="s">
+        <v>1018</v>
       </c>
       <c r="AL2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AM2" s="64" t="s">
+      <c r="AM2" s="67" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="63"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -5857,7 +5850,7 @@
         <v>5</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U3" s="25" t="s">
         <v>668</v>
@@ -5899,14 +5892,14 @@
       <c r="AH3" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
       <c r="AL3" s="25"/>
-      <c r="AM3" s="63"/>
+      <c r="AM3" s="62"/>
     </row>
     <row r="4" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -5936,7 +5929,7 @@
         <v>5</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U4" s="25" t="s">
         <v>668</v>
@@ -5978,11 +5971,11 @@
       <c r="AH4" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
       <c r="AL4" s="25"/>
-      <c r="AM4" s="63"/>
+      <c r="AM4" s="62"/>
     </row>
     <row r="5" spans="1:39" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
@@ -6057,7 +6050,7 @@
       </c>
       <c r="Y5" s="25"/>
       <c r="Z5" s="22" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="AA5" s="22" t="s">
         <v>24</v>
@@ -6084,13 +6077,13 @@
         <v>429</v>
       </c>
       <c r="AI5" s="25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AJ5" s="25" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK5" s="25" t="s">
-        <v>1027</v>
+        <v>1151</v>
       </c>
       <c r="AL5" s="25" t="s">
         <v>21</v>
@@ -6100,7 +6093,7 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="238" x14ac:dyDescent="0.2">
-      <c r="A6" s="63">
+      <c r="A6" s="62">
         <v>3</v>
       </c>
       <c r="B6" s="25">
@@ -6200,24 +6193,24 @@
       <c r="AH6" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI6" s="63" t="s">
+      <c r="AI6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="AJ6" s="63" t="s">
-        <v>994</v>
-      </c>
-      <c r="AK6" s="63" t="s">
-        <v>1028</v>
+      <c r="AJ6" s="62" t="s">
+        <v>993</v>
+      </c>
+      <c r="AK6" s="62" t="s">
+        <v>1152</v>
       </c>
       <c r="AL6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AM6" s="63" t="s">
+      <c r="AM6" s="62" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -6287,14 +6280,14 @@
       <c r="AH7" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI7" s="63"/>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="63"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
       <c r="AL7" s="25"/>
-      <c r="AM7" s="63"/>
+      <c r="AM7" s="62"/>
     </row>
     <row r="8" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -6360,14 +6353,14 @@
       <c r="AH8" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
       <c r="AL8" s="25"/>
-      <c r="AM8" s="63"/>
+      <c r="AM8" s="62"/>
     </row>
     <row r="9" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -6437,14 +6430,14 @@
       <c r="AH9" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
       <c r="AL9" s="25"/>
-      <c r="AM9" s="63"/>
+      <c r="AM9" s="62"/>
     </row>
     <row r="10" spans="1:39" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -6508,14 +6501,14 @@
       <c r="AH10" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="63"/>
-      <c r="AK10" s="63"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="62"/>
       <c r="AL10" s="25"/>
-      <c r="AM10" s="63"/>
+      <c r="AM10" s="62"/>
     </row>
     <row r="11" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="63">
+      <c r="A11" s="62">
         <v>4</v>
       </c>
       <c r="B11" s="25">
@@ -6573,7 +6566,7 @@
         <v>56</v>
       </c>
       <c r="T11" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U11" s="25" t="s">
         <v>57</v>
@@ -6613,22 +6606,22 @@
       <c r="AH11" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI11" s="63" t="s">
+      <c r="AI11" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="AJ11" s="63" t="s">
-        <v>995</v>
-      </c>
-      <c r="AK11" s="63" t="s">
-        <v>1033</v>
+      <c r="AJ11" s="62" t="s">
+        <v>994</v>
+      </c>
+      <c r="AK11" s="62" t="s">
+        <v>1153</v>
       </c>
       <c r="AL11" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AM11" s="62"/>
+      <c r="AM11" s="63"/>
     </row>
     <row r="12" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -6658,7 +6651,7 @@
         <v>61</v>
       </c>
       <c r="T12" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U12" s="25" t="s">
         <v>62</v>
@@ -6702,14 +6695,14 @@
       <c r="AH12" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="63"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="62"/>
       <c r="AL12" s="25"/>
-      <c r="AM12" s="62"/>
+      <c r="AM12" s="63"/>
     </row>
     <row r="13" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -6739,7 +6732,7 @@
         <v>65</v>
       </c>
       <c r="T13" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U13" s="31"/>
       <c r="V13" s="31"/>
@@ -6775,11 +6768,11 @@
       <c r="AH13" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="63"/>
-      <c r="AK13" s="63"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="62"/>
       <c r="AL13" s="25"/>
-      <c r="AM13" s="62"/>
+      <c r="AM13" s="63"/>
     </row>
     <row r="14" spans="1:39" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="25">
@@ -6840,7 +6833,7 @@
         <v>76</v>
       </c>
       <c r="T14" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U14" s="26" t="s">
         <v>77</v>
@@ -6856,7 +6849,7 @@
       </c>
       <c r="Y14" s="26"/>
       <c r="Z14" s="22" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="AA14" s="26" t="s">
         <v>9</v>
@@ -6889,7 +6882,7 @@
       <c r="AM14" s="25"/>
     </row>
     <row r="15" spans="1:39" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63">
+      <c r="A15" s="62">
         <v>6</v>
       </c>
       <c r="B15" s="25">
@@ -6947,7 +6940,7 @@
         <v>85</v>
       </c>
       <c r="T15" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U15" s="25" t="s">
         <v>86</v>
@@ -6989,22 +6982,22 @@
       <c r="AH15" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI15" s="63" t="s">
+      <c r="AI15" s="62" t="s">
+        <v>995</v>
+      </c>
+      <c r="AJ15" s="62" t="s">
         <v>996</v>
       </c>
-      <c r="AJ15" s="63" t="s">
-        <v>997</v>
-      </c>
-      <c r="AK15" s="63" t="s">
-        <v>1036</v>
+      <c r="AK15" s="62" t="s">
+        <v>1154</v>
       </c>
       <c r="AL15" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="AM15" s="65"/>
+      <c r="AM15" s="69"/>
     </row>
     <row r="16" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -7034,7 +7027,7 @@
         <v>85</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U16" s="25" t="s">
         <v>86</v>
@@ -7076,14 +7069,14 @@
       <c r="AH16" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="62"/>
       <c r="AL16" s="25"/>
-      <c r="AM16" s="65"/>
+      <c r="AM16" s="69"/>
     </row>
     <row r="17" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -7113,7 +7106,7 @@
         <v>85</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U17" s="25" t="s">
         <v>86</v>
@@ -7155,14 +7148,14 @@
       <c r="AH17" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="63"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="62"/>
       <c r="AL17" s="25"/>
-      <c r="AM17" s="65"/>
+      <c r="AM17" s="69"/>
     </row>
     <row r="18" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -7192,7 +7185,7 @@
         <v>85</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U18" s="25" t="s">
         <v>86</v>
@@ -7234,14 +7227,14 @@
       <c r="AH18" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="62"/>
       <c r="AL18" s="25"/>
-      <c r="AM18" s="65"/>
+      <c r="AM18" s="69"/>
     </row>
     <row r="19" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -7271,7 +7264,7 @@
         <v>85</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U19" s="25" t="s">
         <v>86</v>
@@ -7313,14 +7306,14 @@
       <c r="AH19" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
       <c r="AL19" s="25"/>
-      <c r="AM19" s="65"/>
+      <c r="AM19" s="69"/>
     </row>
     <row r="20" spans="1:39" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -7350,7 +7343,7 @@
         <v>85</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U20" s="25" t="s">
         <v>86</v>
@@ -7392,14 +7385,14 @@
       <c r="AH20" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
       <c r="AL20" s="25"/>
-      <c r="AM20" s="65"/>
+      <c r="AM20" s="69"/>
     </row>
     <row r="21" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="63">
+      <c r="A21" s="62">
         <v>7</v>
       </c>
       <c r="B21" s="25">
@@ -7454,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="25" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="T21" s="26"/>
       <c r="U21" s="25" t="s">
@@ -7495,22 +7488,22 @@
       <c r="AH21" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI21" s="66" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AJ21" s="63" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AK21" s="63" t="s">
-        <v>1026</v>
+      <c r="AI21" s="68" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AJ21" s="62" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AK21" s="62" t="s">
+        <v>1018</v>
       </c>
       <c r="AL21" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="AM21" s="63"/>
+      <c r="AM21" s="62"/>
     </row>
     <row r="22" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -7537,7 +7530,7 @@
       </c>
       <c r="R22" s="25"/>
       <c r="S22" s="25" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="T22" s="26"/>
       <c r="U22" s="25" t="s">
@@ -7578,14 +7571,14 @@
       <c r="AH22" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="63"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
       <c r="AL22" s="25"/>
-      <c r="AM22" s="63"/>
+      <c r="AM22" s="62"/>
     </row>
     <row r="23" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -7612,7 +7605,7 @@
       </c>
       <c r="R23" s="25"/>
       <c r="S23" s="25" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="T23" s="26"/>
       <c r="U23" s="25" t="s">
@@ -7653,14 +7646,14 @@
       <c r="AH23" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="63"/>
-      <c r="AK23" s="63"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
       <c r="AL23" s="25"/>
-      <c r="AM23" s="63"/>
+      <c r="AM23" s="62"/>
     </row>
     <row r="24" spans="1:39" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A24" s="63">
+      <c r="A24" s="62">
         <v>8</v>
       </c>
       <c r="B24" s="25">
@@ -7758,22 +7751,22 @@
       <c r="AH24" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI24" s="63" t="s">
+      <c r="AI24" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AJ24" s="63" t="s">
+      <c r="AJ24" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AK24" s="63" t="s">
-        <v>1029</v>
+      <c r="AK24" s="62" t="s">
+        <v>1019</v>
       </c>
       <c r="AL24" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="AM24" s="63"/>
+      <c r="AM24" s="62"/>
     </row>
     <row r="25" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -7843,14 +7836,14 @@
       <c r="AH25" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
       <c r="AL25" s="25"/>
-      <c r="AM25" s="63"/>
+      <c r="AM25" s="62"/>
     </row>
     <row r="26" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -7920,14 +7913,14 @@
       <c r="AH26" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="63"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="62"/>
       <c r="AL26" s="25"/>
-      <c r="AM26" s="63"/>
+      <c r="AM26" s="62"/>
     </row>
     <row r="27" spans="1:39" ht="187" x14ac:dyDescent="0.2">
-      <c r="A27" s="63">
+      <c r="A27" s="62">
         <v>9</v>
       </c>
       <c r="B27" s="25">
@@ -8023,22 +8016,22 @@
       <c r="AH27" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI27" s="63" t="s">
+      <c r="AI27" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AJ27" s="63" t="s">
-        <v>998</v>
-      </c>
-      <c r="AK27" s="66" t="s">
-        <v>1162</v>
+      <c r="AJ27" s="62" t="s">
+        <v>997</v>
+      </c>
+      <c r="AK27" s="68" t="s">
+        <v>1155</v>
       </c>
       <c r="AL27" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AM27" s="62"/>
+      <c r="AM27" s="63"/>
     </row>
     <row r="28" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -8095,7 +8088,7 @@
         <v>115</v>
       </c>
       <c r="AE28" s="25" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="AF28" s="25" t="s">
         <v>129</v>
@@ -8106,14 +8099,14 @@
       <c r="AH28" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="66"/>
+      <c r="AI28" s="62"/>
+      <c r="AJ28" s="62"/>
+      <c r="AK28" s="68"/>
       <c r="AL28" s="25"/>
-      <c r="AM28" s="62"/>
+      <c r="AM28" s="63"/>
     </row>
     <row r="29" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -8181,14 +8174,14 @@
       <c r="AH29" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="66"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="68"/>
       <c r="AL29" s="25"/>
-      <c r="AM29" s="62"/>
+      <c r="AM29" s="63"/>
     </row>
     <row r="30" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -8218,7 +8211,7 @@
         <v>134</v>
       </c>
       <c r="T30" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U30" s="25" t="s">
         <v>124</v>
@@ -8258,14 +8251,14 @@
       <c r="AH30" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="66"/>
+      <c r="AI30" s="62"/>
+      <c r="AJ30" s="62"/>
+      <c r="AK30" s="68"/>
       <c r="AL30" s="25"/>
-      <c r="AM30" s="62"/>
+      <c r="AM30" s="63"/>
     </row>
     <row r="31" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -8295,7 +8288,7 @@
         <v>134</v>
       </c>
       <c r="T31" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U31" s="25" t="s">
         <v>124</v>
@@ -8335,14 +8328,14 @@
       <c r="AH31" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="66"/>
+      <c r="AI31" s="62"/>
+      <c r="AJ31" s="62"/>
+      <c r="AK31" s="68"/>
       <c r="AL31" s="25"/>
-      <c r="AM31" s="62"/>
+      <c r="AM31" s="63"/>
     </row>
     <row r="32" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -8372,7 +8365,7 @@
         <v>134</v>
       </c>
       <c r="T32" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U32" s="25" t="s">
         <v>124</v>
@@ -8408,14 +8401,14 @@
       <c r="AH32" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI32" s="63"/>
-      <c r="AJ32" s="63"/>
-      <c r="AK32" s="66"/>
+      <c r="AI32" s="62"/>
+      <c r="AJ32" s="62"/>
+      <c r="AK32" s="68"/>
       <c r="AL32" s="25"/>
-      <c r="AM32" s="62"/>
+      <c r="AM32" s="63"/>
     </row>
     <row r="33" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -8445,7 +8438,7 @@
         <v>134</v>
       </c>
       <c r="T33" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U33" s="25" t="s">
         <v>124</v>
@@ -8481,14 +8474,14 @@
       <c r="AH33" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AI33" s="63"/>
-      <c r="AJ33" s="63"/>
-      <c r="AK33" s="66"/>
+      <c r="AI33" s="62"/>
+      <c r="AJ33" s="62"/>
+      <c r="AK33" s="68"/>
       <c r="AL33" s="25"/>
-      <c r="AM33" s="62"/>
+      <c r="AM33" s="63"/>
     </row>
     <row r="34" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -8518,7 +8511,7 @@
         <v>134</v>
       </c>
       <c r="T34" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U34" s="25" t="s">
         <v>124</v>
@@ -8554,14 +8547,14 @@
       <c r="AH34" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="66"/>
+      <c r="AI34" s="62"/>
+      <c r="AJ34" s="62"/>
+      <c r="AK34" s="68"/>
       <c r="AL34" s="25"/>
-      <c r="AM34" s="62"/>
+      <c r="AM34" s="63"/>
     </row>
     <row r="35" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -8591,7 +8584,7 @@
         <v>134</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U35" s="25" t="s">
         <v>124</v>
@@ -8627,14 +8620,14 @@
       <c r="AH35" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI35" s="63"/>
-      <c r="AJ35" s="63"/>
-      <c r="AK35" s="66"/>
+      <c r="AI35" s="62"/>
+      <c r="AJ35" s="62"/>
+      <c r="AK35" s="68"/>
       <c r="AL35" s="25"/>
-      <c r="AM35" s="62"/>
+      <c r="AM35" s="63"/>
     </row>
     <row r="36" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -8702,14 +8695,14 @@
       <c r="AH36" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI36" s="63"/>
-      <c r="AJ36" s="63"/>
-      <c r="AK36" s="66"/>
+      <c r="AI36" s="62"/>
+      <c r="AJ36" s="62"/>
+      <c r="AK36" s="68"/>
       <c r="AL36" s="25"/>
-      <c r="AM36" s="62"/>
+      <c r="AM36" s="63"/>
     </row>
     <row r="37" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -8766,7 +8759,7 @@
         <v>115</v>
       </c>
       <c r="AE37" s="25" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="AF37" s="25" t="s">
         <v>129</v>
@@ -8777,14 +8770,14 @@
       <c r="AH37" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI37" s="63"/>
-      <c r="AJ37" s="63"/>
-      <c r="AK37" s="66"/>
+      <c r="AI37" s="62"/>
+      <c r="AJ37" s="62"/>
+      <c r="AK37" s="68"/>
       <c r="AL37" s="25"/>
-      <c r="AM37" s="62"/>
+      <c r="AM37" s="63"/>
     </row>
     <row r="38" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -8848,14 +8841,14 @@
       <c r="AH38" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI38" s="63"/>
-      <c r="AJ38" s="63"/>
-      <c r="AK38" s="66"/>
+      <c r="AI38" s="62"/>
+      <c r="AJ38" s="62"/>
+      <c r="AK38" s="68"/>
       <c r="AL38" s="25"/>
-      <c r="AM38" s="62"/>
+      <c r="AM38" s="63"/>
     </row>
     <row r="39" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -8919,14 +8912,14 @@
       <c r="AH39" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI39" s="63"/>
-      <c r="AJ39" s="63"/>
-      <c r="AK39" s="66"/>
+      <c r="AI39" s="62"/>
+      <c r="AJ39" s="62"/>
+      <c r="AK39" s="68"/>
       <c r="AL39" s="25"/>
-      <c r="AM39" s="62"/>
+      <c r="AM39" s="63"/>
     </row>
     <row r="40" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -8956,7 +8949,7 @@
         <v>146</v>
       </c>
       <c r="T40" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U40" s="25" t="s">
         <v>124</v>
@@ -8996,14 +8989,14 @@
       <c r="AH40" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI40" s="63"/>
-      <c r="AJ40" s="63"/>
-      <c r="AK40" s="66"/>
+      <c r="AI40" s="62"/>
+      <c r="AJ40" s="62"/>
+      <c r="AK40" s="68"/>
       <c r="AL40" s="25"/>
-      <c r="AM40" s="62"/>
+      <c r="AM40" s="63"/>
     </row>
     <row r="41" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -9033,7 +9026,7 @@
         <v>146</v>
       </c>
       <c r="T41" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U41" s="25" t="s">
         <v>124</v>
@@ -9073,14 +9066,14 @@
       <c r="AH41" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="AI41" s="63"/>
-      <c r="AJ41" s="63"/>
-      <c r="AK41" s="66"/>
+      <c r="AI41" s="62"/>
+      <c r="AJ41" s="62"/>
+      <c r="AK41" s="68"/>
       <c r="AL41" s="25"/>
-      <c r="AM41" s="62"/>
+      <c r="AM41" s="63"/>
     </row>
     <row r="42" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -9110,7 +9103,7 @@
         <v>146</v>
       </c>
       <c r="T42" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U42" s="25" t="s">
         <v>124</v>
@@ -9146,14 +9139,14 @@
       <c r="AH42" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI42" s="63"/>
-      <c r="AJ42" s="63"/>
-      <c r="AK42" s="66"/>
+      <c r="AI42" s="62"/>
+      <c r="AJ42" s="62"/>
+      <c r="AK42" s="68"/>
       <c r="AL42" s="25"/>
-      <c r="AM42" s="62"/>
+      <c r="AM42" s="63"/>
     </row>
     <row r="43" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="63"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -9183,7 +9176,7 @@
         <v>146</v>
       </c>
       <c r="T43" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U43" s="25" t="s">
         <v>124</v>
@@ -9219,14 +9212,14 @@
       <c r="AH43" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI43" s="63"/>
-      <c r="AJ43" s="63"/>
-      <c r="AK43" s="66"/>
+      <c r="AI43" s="62"/>
+      <c r="AJ43" s="62"/>
+      <c r="AK43" s="68"/>
       <c r="AL43" s="25"/>
-      <c r="AM43" s="62"/>
+      <c r="AM43" s="63"/>
     </row>
     <row r="44" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -9256,7 +9249,7 @@
         <v>146</v>
       </c>
       <c r="T44" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U44" s="25" t="s">
         <v>124</v>
@@ -9292,14 +9285,14 @@
       <c r="AH44" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI44" s="63"/>
-      <c r="AJ44" s="63"/>
-      <c r="AK44" s="66"/>
+      <c r="AI44" s="62"/>
+      <c r="AJ44" s="62"/>
+      <c r="AK44" s="68"/>
       <c r="AL44" s="25"/>
-      <c r="AM44" s="62"/>
+      <c r="AM44" s="63"/>
     </row>
     <row r="45" spans="1:39" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A45" s="63">
+      <c r="A45" s="62">
         <v>10</v>
       </c>
       <c r="B45" s="36">
@@ -9358,7 +9351,7 @@
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="22" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="V45" s="25"/>
       <c r="W45" s="25"/>
@@ -9391,22 +9384,22 @@
       <c r="AH45" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI45" s="63" t="s">
-        <v>974</v>
-      </c>
-      <c r="AJ45" s="63" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AK45" s="63" t="s">
-        <v>1026</v>
+      <c r="AI45" s="62" t="s">
+        <v>973</v>
+      </c>
+      <c r="AJ45" s="62" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AK45" s="62" t="s">
+        <v>1018</v>
       </c>
       <c r="AL45" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="AM45" s="63"/>
+      <c r="AM45" s="62"/>
     </row>
     <row r="46" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -9437,7 +9430,7 @@
       </c>
       <c r="T46" s="26"/>
       <c r="U46" s="22" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="V46" s="25"/>
       <c r="W46" s="25"/>
@@ -9466,14 +9459,14 @@
       <c r="AH46" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI46" s="63"/>
-      <c r="AJ46" s="63"/>
-      <c r="AK46" s="63"/>
+      <c r="AI46" s="62"/>
+      <c r="AJ46" s="62"/>
+      <c r="AK46" s="62"/>
       <c r="AL46" s="25"/>
-      <c r="AM46" s="63"/>
+      <c r="AM46" s="62"/>
     </row>
     <row r="47" spans="1:39" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -9504,7 +9497,7 @@
       </c>
       <c r="T47" s="26"/>
       <c r="U47" s="22" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="V47" s="25"/>
       <c r="W47" s="25"/>
@@ -9533,14 +9526,14 @@
       <c r="AH47" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI47" s="63"/>
-      <c r="AJ47" s="63"/>
-      <c r="AK47" s="63"/>
+      <c r="AI47" s="62"/>
+      <c r="AJ47" s="62"/>
+      <c r="AK47" s="62"/>
       <c r="AL47" s="25"/>
-      <c r="AM47" s="63"/>
+      <c r="AM47" s="62"/>
     </row>
     <row r="48" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -9571,7 +9564,7 @@
       </c>
       <c r="T48" s="26"/>
       <c r="U48" s="22" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="V48" s="25"/>
       <c r="W48" s="25"/>
@@ -9600,14 +9593,14 @@
       <c r="AH48" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI48" s="63"/>
-      <c r="AJ48" s="63"/>
-      <c r="AK48" s="63"/>
+      <c r="AI48" s="62"/>
+      <c r="AJ48" s="62"/>
+      <c r="AK48" s="62"/>
       <c r="AL48" s="25"/>
-      <c r="AM48" s="63"/>
+      <c r="AM48" s="62"/>
     </row>
     <row r="49" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -9638,7 +9631,7 @@
       </c>
       <c r="T49" s="26"/>
       <c r="U49" s="22" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
@@ -9667,14 +9660,14 @@
       <c r="AH49" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI49" s="63"/>
-      <c r="AJ49" s="63"/>
-      <c r="AK49" s="63"/>
+      <c r="AI49" s="62"/>
+      <c r="AJ49" s="62"/>
+      <c r="AK49" s="62"/>
       <c r="AL49" s="25"/>
-      <c r="AM49" s="63"/>
+      <c r="AM49" s="62"/>
     </row>
     <row r="50" spans="1:39" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A50" s="67">
+      <c r="A50" s="65">
         <v>11</v>
       </c>
       <c r="B50" s="25">
@@ -9732,7 +9725,7 @@
         <v>134</v>
       </c>
       <c r="T50" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U50" s="25" t="s">
         <v>165</v>
@@ -9768,24 +9761,24 @@
       <c r="AH50" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI50" s="63" t="s">
-        <v>975</v>
-      </c>
-      <c r="AJ50" s="63" t="s">
-        <v>998</v>
-      </c>
-      <c r="AK50" s="63" t="s">
-        <v>1034</v>
+      <c r="AI50" s="62" t="s">
+        <v>974</v>
+      </c>
+      <c r="AJ50" s="62" t="s">
+        <v>997</v>
+      </c>
+      <c r="AK50" s="62" t="s">
+        <v>1156</v>
       </c>
       <c r="AL50" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="AM50" s="63" t="s">
+      <c r="AM50" s="62" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="68"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
@@ -9815,7 +9808,7 @@
         <v>134</v>
       </c>
       <c r="T51" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U51" s="25" t="s">
         <v>165</v>
@@ -9851,14 +9844,14 @@
       <c r="AH51" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI51" s="63"/>
-      <c r="AJ51" s="63"/>
-      <c r="AK51" s="63"/>
+      <c r="AI51" s="62"/>
+      <c r="AJ51" s="62"/>
+      <c r="AK51" s="62"/>
       <c r="AL51" s="25"/>
-      <c r="AM51" s="63"/>
+      <c r="AM51" s="62"/>
     </row>
     <row r="52" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="68"/>
+      <c r="A52" s="66"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -9888,7 +9881,7 @@
         <v>134</v>
       </c>
       <c r="T52" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U52" s="25" t="s">
         <v>165</v>
@@ -9924,14 +9917,14 @@
       <c r="AH52" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI52" s="63"/>
-      <c r="AJ52" s="63"/>
-      <c r="AK52" s="63"/>
+      <c r="AI52" s="62"/>
+      <c r="AJ52" s="62"/>
+      <c r="AK52" s="62"/>
       <c r="AL52" s="25"/>
-      <c r="AM52" s="63"/>
+      <c r="AM52" s="62"/>
     </row>
     <row r="53" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="68"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -9961,7 +9954,7 @@
         <v>134</v>
       </c>
       <c r="T53" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U53" s="25" t="s">
         <v>165</v>
@@ -9997,14 +9990,14 @@
       <c r="AH53" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI53" s="63"/>
-      <c r="AJ53" s="63"/>
-      <c r="AK53" s="63"/>
+      <c r="AI53" s="62"/>
+      <c r="AJ53" s="62"/>
+      <c r="AK53" s="62"/>
       <c r="AL53" s="25"/>
-      <c r="AM53" s="63"/>
+      <c r="AM53" s="62"/>
     </row>
     <row r="54" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="68"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -10034,7 +10027,7 @@
         <v>134</v>
       </c>
       <c r="T54" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U54" s="25" t="s">
         <v>165</v>
@@ -10070,14 +10063,14 @@
       <c r="AH54" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI54" s="63"/>
-      <c r="AJ54" s="63"/>
-      <c r="AK54" s="63"/>
+      <c r="AI54" s="62"/>
+      <c r="AJ54" s="62"/>
+      <c r="AK54" s="62"/>
       <c r="AL54" s="25"/>
-      <c r="AM54" s="63"/>
+      <c r="AM54" s="62"/>
     </row>
     <row r="55" spans="1:39" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="64"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
@@ -10088,7 +10081,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="J55" s="32">
         <v>3</v>
@@ -10107,7 +10100,7 @@
         <v>134</v>
       </c>
       <c r="T55" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U55" s="22" t="s">
         <v>165</v>
@@ -10150,7 +10143,7 @@
       <c r="AM55" s="22"/>
     </row>
     <row r="56" spans="1:39" s="1" customFormat="1" ht="289" x14ac:dyDescent="0.2">
-      <c r="A56" s="63">
+      <c r="A56" s="62">
         <v>12</v>
       </c>
       <c r="B56" s="25">
@@ -10242,22 +10235,22 @@
       <c r="AH56" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI56" s="63" t="s">
-        <v>976</v>
-      </c>
-      <c r="AJ56" s="63" t="s">
-        <v>998</v>
-      </c>
-      <c r="AK56" s="63" t="s">
-        <v>1034</v>
+      <c r="AI56" s="62" t="s">
+        <v>975</v>
+      </c>
+      <c r="AJ56" s="62" t="s">
+        <v>997</v>
+      </c>
+      <c r="AK56" s="62" t="s">
+        <v>1156</v>
       </c>
       <c r="AL56" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="AM56" s="63"/>
+      <c r="AM56" s="62"/>
     </row>
     <row r="57" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -10325,14 +10318,14 @@
       <c r="AH57" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="AI57" s="63"/>
-      <c r="AJ57" s="63"/>
-      <c r="AK57" s="63"/>
+      <c r="AI57" s="62"/>
+      <c r="AJ57" s="62"/>
+      <c r="AK57" s="62"/>
       <c r="AL57" s="25"/>
-      <c r="AM57" s="63"/>
+      <c r="AM57" s="62"/>
     </row>
     <row r="58" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -10394,14 +10387,14 @@
       <c r="AH58" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="AI58" s="63"/>
-      <c r="AJ58" s="63"/>
-      <c r="AK58" s="63"/>
+      <c r="AI58" s="62"/>
+      <c r="AJ58" s="62"/>
+      <c r="AK58" s="62"/>
       <c r="AL58" s="25"/>
-      <c r="AM58" s="63"/>
+      <c r="AM58" s="62"/>
     </row>
     <row r="59" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -10463,14 +10456,14 @@
       <c r="AH59" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="AI59" s="63"/>
-      <c r="AJ59" s="63"/>
-      <c r="AK59" s="63"/>
+      <c r="AI59" s="62"/>
+      <c r="AJ59" s="62"/>
+      <c r="AK59" s="62"/>
       <c r="AL59" s="25"/>
-      <c r="AM59" s="63"/>
+      <c r="AM59" s="62"/>
     </row>
     <row r="60" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="63"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -10500,7 +10493,7 @@
         <v>184</v>
       </c>
       <c r="T60" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U60" s="25" t="s">
         <v>182</v>
@@ -10538,14 +10531,14 @@
       <c r="AH60" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="AI60" s="63"/>
-      <c r="AJ60" s="63"/>
-      <c r="AK60" s="63"/>
+      <c r="AI60" s="62"/>
+      <c r="AJ60" s="62"/>
+      <c r="AK60" s="62"/>
       <c r="AL60" s="25"/>
-      <c r="AM60" s="63"/>
+      <c r="AM60" s="62"/>
     </row>
     <row r="61" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -10575,7 +10568,7 @@
         <v>184</v>
       </c>
       <c r="T61" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U61" s="25" t="s">
         <v>185</v>
@@ -10613,14 +10606,14 @@
       <c r="AH61" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="AI61" s="63"/>
-      <c r="AJ61" s="63"/>
-      <c r="AK61" s="63"/>
+      <c r="AI61" s="62"/>
+      <c r="AJ61" s="62"/>
+      <c r="AK61" s="62"/>
       <c r="AL61" s="25"/>
-      <c r="AM61" s="63"/>
+      <c r="AM61" s="62"/>
     </row>
     <row r="62" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -10650,7 +10643,7 @@
         <v>184</v>
       </c>
       <c r="T62" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U62" s="25" t="s">
         <v>185</v>
@@ -10688,14 +10681,14 @@
       <c r="AH62" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="AI62" s="63"/>
-      <c r="AJ62" s="63"/>
-      <c r="AK62" s="63"/>
+      <c r="AI62" s="62"/>
+      <c r="AJ62" s="62"/>
+      <c r="AK62" s="62"/>
       <c r="AL62" s="25"/>
-      <c r="AM62" s="63"/>
+      <c r="AM62" s="62"/>
     </row>
     <row r="63" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -10725,7 +10718,7 @@
         <v>184</v>
       </c>
       <c r="T63" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U63" s="25" t="s">
         <v>185</v>
@@ -10763,14 +10756,14 @@
       <c r="AH63" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="AI63" s="63"/>
-      <c r="AJ63" s="63"/>
-      <c r="AK63" s="63"/>
+      <c r="AI63" s="62"/>
+      <c r="AJ63" s="62"/>
+      <c r="AK63" s="62"/>
       <c r="AL63" s="25"/>
-      <c r="AM63" s="63"/>
+      <c r="AM63" s="62"/>
     </row>
     <row r="64" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -10800,7 +10793,7 @@
         <v>184</v>
       </c>
       <c r="T64" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U64" s="25" t="s">
         <v>185</v>
@@ -10838,11 +10831,11 @@
       <c r="AH64" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="AI64" s="63"/>
-      <c r="AJ64" s="63"/>
-      <c r="AK64" s="63"/>
+      <c r="AI64" s="62"/>
+      <c r="AJ64" s="62"/>
+      <c r="AK64" s="62"/>
       <c r="AL64" s="25"/>
-      <c r="AM64" s="63"/>
+      <c r="AM64" s="62"/>
     </row>
     <row r="65" spans="1:39" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A65" s="25">
@@ -10929,13 +10922,13 @@
         <v>666</v>
       </c>
       <c r="AD65" s="25" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="AE65" s="25" t="s">
-        <v>394</v>
+        <v>1149</v>
       </c>
       <c r="AF65" s="25" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
       <c r="AG65" s="25">
         <v>-1.21</v>
@@ -10950,7 +10943,7 @@
         <v>114</v>
       </c>
       <c r="AK65" s="25" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="AL65" s="25" t="s">
         <v>190</v>
@@ -11055,13 +11048,13 @@
         <v>429</v>
       </c>
       <c r="AI66" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AJ66" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AK66" s="25" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="AL66" s="25" t="s">
         <v>202</v>
@@ -11069,7 +11062,7 @@
       <c r="AM66" s="25"/>
     </row>
     <row r="67" spans="1:39" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A67" s="63">
+      <c r="A67" s="62">
         <v>15</v>
       </c>
       <c r="B67" s="25">
@@ -11161,22 +11154,22 @@
       <c r="AH67" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI67" s="63" t="s">
+      <c r="AI67" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AJ67" s="63" t="s">
+      <c r="AJ67" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AK67" s="63" t="s">
-        <v>1029</v>
+      <c r="AK67" s="62" t="s">
+        <v>1019</v>
       </c>
       <c r="AL67" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="AM67" s="63"/>
+      <c r="AM67" s="62"/>
     </row>
     <row r="68" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="63"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -11241,14 +11234,14 @@
       <c r="AH68" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI68" s="63"/>
-      <c r="AJ68" s="63"/>
-      <c r="AK68" s="63"/>
+      <c r="AI68" s="62"/>
+      <c r="AJ68" s="62"/>
+      <c r="AK68" s="62"/>
       <c r="AL68" s="25"/>
-      <c r="AM68" s="63"/>
+      <c r="AM68" s="62"/>
     </row>
     <row r="69" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="63"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -11277,7 +11270,7 @@
         <v>207</v>
       </c>
       <c r="T69" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U69" s="25" t="s">
         <v>57</v>
@@ -11315,14 +11308,14 @@
       <c r="AH69" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI69" s="63"/>
-      <c r="AJ69" s="63"/>
-      <c r="AK69" s="63"/>
+      <c r="AI69" s="62"/>
+      <c r="AJ69" s="62"/>
+      <c r="AK69" s="62"/>
       <c r="AL69" s="25"/>
-      <c r="AM69" s="63"/>
+      <c r="AM69" s="62"/>
     </row>
     <row r="70" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="63"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -11385,14 +11378,14 @@
       <c r="AH70" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI70" s="63"/>
-      <c r="AJ70" s="63"/>
-      <c r="AK70" s="63"/>
+      <c r="AI70" s="62"/>
+      <c r="AJ70" s="62"/>
+      <c r="AK70" s="62"/>
       <c r="AL70" s="25"/>
-      <c r="AM70" s="63"/>
+      <c r="AM70" s="62"/>
     </row>
     <row r="71" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="63"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -11455,14 +11448,14 @@
       <c r="AH71" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI71" s="63"/>
-      <c r="AJ71" s="63"/>
-      <c r="AK71" s="63"/>
+      <c r="AI71" s="62"/>
+      <c r="AJ71" s="62"/>
+      <c r="AK71" s="62"/>
       <c r="AL71" s="25"/>
-      <c r="AM71" s="63"/>
+      <c r="AM71" s="62"/>
     </row>
     <row r="72" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="63"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -11491,7 +11484,7 @@
         <v>207</v>
       </c>
       <c r="T72" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U72" s="25" t="s">
         <v>57</v>
@@ -11529,14 +11522,14 @@
       <c r="AH72" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI72" s="63"/>
-      <c r="AJ72" s="63"/>
-      <c r="AK72" s="63"/>
+      <c r="AI72" s="62"/>
+      <c r="AJ72" s="62"/>
+      <c r="AK72" s="62"/>
       <c r="AL72" s="25"/>
-      <c r="AM72" s="63"/>
+      <c r="AM72" s="62"/>
     </row>
     <row r="73" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="63"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -11566,7 +11559,7 @@
         <v>207</v>
       </c>
       <c r="T73" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U73" s="25" t="s">
         <v>222</v>
@@ -11604,14 +11597,14 @@
       <c r="AH73" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AI73" s="63"/>
-      <c r="AJ73" s="63"/>
-      <c r="AK73" s="63"/>
+      <c r="AI73" s="62"/>
+      <c r="AJ73" s="62"/>
+      <c r="AK73" s="62"/>
       <c r="AL73" s="25"/>
-      <c r="AM73" s="63"/>
+      <c r="AM73" s="62"/>
     </row>
     <row r="74" spans="1:39" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -11641,7 +11634,7 @@
         <v>207</v>
       </c>
       <c r="T74" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U74" s="25" t="s">
         <v>225</v>
@@ -11685,14 +11678,14 @@
       <c r="AH74" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AI74" s="63"/>
-      <c r="AJ74" s="63"/>
-      <c r="AK74" s="63"/>
+      <c r="AI74" s="62"/>
+      <c r="AJ74" s="62"/>
+      <c r="AK74" s="62"/>
       <c r="AL74" s="25"/>
-      <c r="AM74" s="63"/>
+      <c r="AM74" s="62"/>
     </row>
     <row r="75" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -11722,7 +11715,7 @@
         <v>207</v>
       </c>
       <c r="T75" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U75" s="25" t="s">
         <v>57</v>
@@ -11758,7 +11751,7 @@
         <v>233</v>
       </c>
       <c r="AF75" s="25" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
       <c r="AG75" s="25">
         <v>0.9</v>
@@ -11766,14 +11759,14 @@
       <c r="AH75" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AI75" s="63"/>
-      <c r="AJ75" s="63"/>
-      <c r="AK75" s="63"/>
+      <c r="AI75" s="62"/>
+      <c r="AJ75" s="62"/>
+      <c r="AK75" s="62"/>
       <c r="AL75" s="25"/>
-      <c r="AM75" s="63"/>
+      <c r="AM75" s="62"/>
     </row>
     <row r="76" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="63"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -11804,7 +11797,7 @@
       </c>
       <c r="T76" s="26"/>
       <c r="U76" s="33" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="V76" s="25" t="s">
         <v>218</v>
@@ -11837,14 +11830,14 @@
       <c r="AH76" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI76" s="63"/>
-      <c r="AJ76" s="63"/>
-      <c r="AK76" s="63"/>
+      <c r="AI76" s="62"/>
+      <c r="AJ76" s="62"/>
+      <c r="AK76" s="62"/>
       <c r="AL76" s="25"/>
-      <c r="AM76" s="63"/>
+      <c r="AM76" s="62"/>
     </row>
     <row r="77" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="63"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -11875,7 +11868,7 @@
       </c>
       <c r="T77" s="26"/>
       <c r="U77" s="33" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="V77" s="25" t="s">
         <v>218</v>
@@ -11908,14 +11901,14 @@
       <c r="AH77" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI77" s="63"/>
-      <c r="AJ77" s="63"/>
-      <c r="AK77" s="63"/>
+      <c r="AI77" s="62"/>
+      <c r="AJ77" s="62"/>
+      <c r="AK77" s="62"/>
       <c r="AL77" s="25"/>
-      <c r="AM77" s="63"/>
+      <c r="AM77" s="62"/>
     </row>
     <row r="78" spans="1:39" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A78" s="63">
+      <c r="A78" s="62">
         <v>16</v>
       </c>
       <c r="B78" s="25" t="s">
@@ -12013,24 +12006,24 @@
       <c r="AH78" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI78" s="63" t="s">
+      <c r="AI78" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AJ78" s="63" t="s">
+      <c r="AJ78" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AK78" s="63" t="s">
-        <v>1029</v>
+      <c r="AK78" s="62" t="s">
+        <v>1019</v>
       </c>
       <c r="AL78" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="AM78" s="63" t="s">
+      <c r="AM78" s="62" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A79" s="63"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -12100,14 +12093,14 @@
       <c r="AH79" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI79" s="63"/>
-      <c r="AJ79" s="63"/>
-      <c r="AK79" s="63"/>
+      <c r="AI79" s="62"/>
+      <c r="AJ79" s="62"/>
+      <c r="AK79" s="62"/>
       <c r="AL79" s="25"/>
-      <c r="AM79" s="63"/>
+      <c r="AM79" s="62"/>
     </row>
     <row r="80" spans="1:39" s="1" customFormat="1" ht="340" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="63">
+      <c r="A80" s="62">
         <v>17</v>
       </c>
       <c r="B80" s="25">
@@ -12207,22 +12200,22 @@
       <c r="AH80" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI80" s="63" t="s">
-        <v>978</v>
-      </c>
-      <c r="AJ80" s="63" t="s">
-        <v>999</v>
-      </c>
-      <c r="AK80" s="63" t="s">
-        <v>1030</v>
+      <c r="AI80" s="62" t="s">
+        <v>977</v>
+      </c>
+      <c r="AJ80" s="62" t="s">
+        <v>998</v>
+      </c>
+      <c r="AK80" s="62" t="s">
+        <v>1157</v>
       </c>
       <c r="AL80" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="AM80" s="63"/>
+      <c r="AM80" s="62"/>
     </row>
     <row r="81" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="63"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -12290,14 +12283,14 @@
       <c r="AH81" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI81" s="63"/>
-      <c r="AJ81" s="63"/>
-      <c r="AK81" s="63"/>
+      <c r="AI81" s="62"/>
+      <c r="AJ81" s="62"/>
+      <c r="AK81" s="62"/>
       <c r="AL81" s="25"/>
-      <c r="AM81" s="63"/>
+      <c r="AM81" s="62"/>
     </row>
     <row r="82" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="63"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -12365,14 +12358,14 @@
       <c r="AH82" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI82" s="63"/>
-      <c r="AJ82" s="63"/>
-      <c r="AK82" s="63"/>
+      <c r="AI82" s="62"/>
+      <c r="AJ82" s="62"/>
+      <c r="AK82" s="62"/>
       <c r="AL82" s="25"/>
-      <c r="AM82" s="63"/>
+      <c r="AM82" s="62"/>
     </row>
     <row r="83" spans="1:39" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A83" s="63">
+      <c r="A83" s="62">
         <v>18</v>
       </c>
       <c r="B83" s="25">
@@ -12470,24 +12463,24 @@
       <c r="AH83" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="AI83" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AJ83" s="63" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AK83" s="63" t="s">
-        <v>1026</v>
+      <c r="AI83" s="68" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AJ83" s="62" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AK83" s="62" t="s">
+        <v>1018</v>
       </c>
       <c r="AL83" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="AM83" s="63" t="s">
+      <c r="AM83" s="62" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:39" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A84" s="63"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
@@ -12559,14 +12552,14 @@
       <c r="AH84" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="AI84" s="66"/>
-      <c r="AJ84" s="63"/>
-      <c r="AK84" s="63"/>
+      <c r="AI84" s="68"/>
+      <c r="AJ84" s="62"/>
+      <c r="AK84" s="62"/>
       <c r="AL84" s="25"/>
-      <c r="AM84" s="63"/>
+      <c r="AM84" s="62"/>
     </row>
     <row r="85" spans="1:39" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A85" s="63"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
@@ -12638,14 +12631,14 @@
       <c r="AH85" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="AI85" s="66"/>
-      <c r="AJ85" s="63"/>
-      <c r="AK85" s="63"/>
+      <c r="AI85" s="68"/>
+      <c r="AJ85" s="62"/>
+      <c r="AK85" s="62"/>
       <c r="AL85" s="25"/>
-      <c r="AM85" s="63"/>
+      <c r="AM85" s="62"/>
     </row>
     <row r="86" spans="1:39" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
@@ -12715,14 +12708,14 @@
       <c r="AH86" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="AI86" s="66"/>
-      <c r="AJ86" s="63"/>
-      <c r="AK86" s="63"/>
+      <c r="AI86" s="68"/>
+      <c r="AJ86" s="62"/>
+      <c r="AK86" s="62"/>
       <c r="AL86" s="25"/>
-      <c r="AM86" s="63"/>
+      <c r="AM86" s="62"/>
     </row>
     <row r="87" spans="1:39" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A87" s="63"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
@@ -12792,14 +12785,14 @@
       <c r="AH87" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="AI87" s="66"/>
-      <c r="AJ87" s="63"/>
-      <c r="AK87" s="63"/>
+      <c r="AI87" s="68"/>
+      <c r="AJ87" s="62"/>
+      <c r="AK87" s="62"/>
       <c r="AL87" s="25"/>
-      <c r="AM87" s="63"/>
+      <c r="AM87" s="62"/>
     </row>
     <row r="88" spans="1:39" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A88" s="63"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
@@ -12869,14 +12862,14 @@
       <c r="AH88" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="AI88" s="66"/>
-      <c r="AJ88" s="63"/>
-      <c r="AK88" s="63"/>
+      <c r="AI88" s="68"/>
+      <c r="AJ88" s="62"/>
+      <c r="AK88" s="62"/>
       <c r="AL88" s="25"/>
-      <c r="AM88" s="63"/>
+      <c r="AM88" s="62"/>
     </row>
     <row r="89" spans="1:39" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A89" s="63"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
@@ -12946,11 +12939,11 @@
       <c r="AH89" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="AI89" s="66"/>
-      <c r="AJ89" s="63"/>
-      <c r="AK89" s="63"/>
+      <c r="AI89" s="68"/>
+      <c r="AJ89" s="62"/>
+      <c r="AK89" s="62"/>
       <c r="AL89" s="25"/>
-      <c r="AM89" s="63"/>
+      <c r="AM89" s="62"/>
     </row>
     <row r="90" spans="1:39" ht="119" x14ac:dyDescent="0.2">
       <c r="A90" s="26">
@@ -13025,7 +13018,7 @@
       </c>
       <c r="Y90" s="26"/>
       <c r="Z90" s="22" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="AA90" s="25" t="s">
         <v>201</v>
@@ -13037,10 +13030,10 @@
         <v>666</v>
       </c>
       <c r="AD90" s="32" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="AE90" s="25" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="AF90" s="25" t="s">
         <v>253</v>
@@ -13058,7 +13051,7 @@
         <v>114</v>
       </c>
       <c r="AK90" s="26" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="AL90" s="25" t="s">
         <v>285</v>
@@ -13152,13 +13145,13 @@
         <v>666</v>
       </c>
       <c r="AD91" s="22" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="AE91" s="25" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
       <c r="AF91" s="25" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="AG91" s="25" t="s">
         <v>293</v>
@@ -13167,13 +13160,13 @@
         <v>429</v>
       </c>
       <c r="AI91" s="25" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AJ91" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AK91" s="25" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="AL91" s="25" t="s">
         <v>300</v>
@@ -13183,7 +13176,7 @@
       </c>
     </row>
     <row r="92" spans="1:39" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A92" s="63">
+      <c r="A92" s="62">
         <v>21</v>
       </c>
       <c r="B92" s="25" t="s">
@@ -13195,7 +13188,7 @@
       <c r="D92" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="E92" s="63" t="s">
+      <c r="E92" s="62" t="s">
         <v>299</v>
       </c>
       <c r="F92" s="25">
@@ -13275,26 +13268,26 @@
       <c r="AH92" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI92" s="63" t="s">
+      <c r="AI92" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AJ92" s="63" t="s">
+      <c r="AJ92" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AK92" s="63" t="s">
-        <v>1029</v>
+      <c r="AK92" s="62" t="s">
+        <v>1019</v>
       </c>
       <c r="AL92" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="AM92" s="63"/>
+      <c r="AM92" s="62"/>
     </row>
     <row r="93" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A93" s="63"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
-      <c r="E93" s="63"/>
+      <c r="E93" s="62"/>
       <c r="F93" s="25"/>
       <c r="G93" s="25"/>
       <c r="H93" s="25">
@@ -13354,18 +13347,18 @@
       <c r="AH93" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI93" s="63"/>
-      <c r="AJ93" s="63"/>
-      <c r="AK93" s="63"/>
+      <c r="AI93" s="62"/>
+      <c r="AJ93" s="62"/>
+      <c r="AK93" s="62"/>
       <c r="AL93" s="25"/>
-      <c r="AM93" s="63"/>
+      <c r="AM93" s="62"/>
     </row>
     <row r="94" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A94" s="63"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
-      <c r="E94" s="63"/>
+      <c r="E94" s="62"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
       <c r="H94" s="25">
@@ -13425,14 +13418,14 @@
       <c r="AH94" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI94" s="63"/>
-      <c r="AJ94" s="63"/>
-      <c r="AK94" s="63"/>
+      <c r="AI94" s="62"/>
+      <c r="AJ94" s="62"/>
+      <c r="AK94" s="62"/>
       <c r="AL94" s="25"/>
-      <c r="AM94" s="63"/>
+      <c r="AM94" s="62"/>
     </row>
     <row r="95" spans="1:39" s="1" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A95" s="63">
+      <c r="A95" s="62">
         <v>22</v>
       </c>
       <c r="B95" s="25">
@@ -13516,7 +13509,7 @@
         <v>666</v>
       </c>
       <c r="AD95" s="22" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="AE95" s="25"/>
       <c r="AF95" s="25" t="s">
@@ -13528,22 +13521,22 @@
       <c r="AH95" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI95" s="63" t="s">
+      <c r="AI95" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AJ95" s="63" t="s">
+      <c r="AJ95" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AK95" s="63" t="s">
-        <v>1029</v>
+      <c r="AK95" s="62" t="s">
+        <v>1019</v>
       </c>
       <c r="AL95" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="AM95" s="63"/>
+      <c r="AM95" s="62"/>
     </row>
     <row r="96" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A96" s="63"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
@@ -13601,7 +13594,7 @@
         <v>666</v>
       </c>
       <c r="AD96" s="22" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="AE96" s="25"/>
       <c r="AF96" s="25" t="s">
@@ -13613,14 +13606,14 @@
       <c r="AH96" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="AI96" s="63"/>
-      <c r="AJ96" s="63"/>
-      <c r="AK96" s="63"/>
+      <c r="AI96" s="62"/>
+      <c r="AJ96" s="62"/>
+      <c r="AK96" s="62"/>
       <c r="AL96" s="25"/>
-      <c r="AM96" s="63"/>
+      <c r="AM96" s="62"/>
     </row>
     <row r="97" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A97" s="63"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
       <c r="D97" s="25"/>
@@ -13686,14 +13679,14 @@
       <c r="AH97" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI97" s="63"/>
-      <c r="AJ97" s="63"/>
-      <c r="AK97" s="63"/>
+      <c r="AI97" s="62"/>
+      <c r="AJ97" s="62"/>
+      <c r="AK97" s="62"/>
       <c r="AL97" s="25"/>
-      <c r="AM97" s="63"/>
+      <c r="AM97" s="62"/>
     </row>
     <row r="98" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A98" s="63"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
@@ -13759,14 +13752,14 @@
       <c r="AH98" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="AI98" s="63"/>
-      <c r="AJ98" s="63"/>
-      <c r="AK98" s="63"/>
+      <c r="AI98" s="62"/>
+      <c r="AJ98" s="62"/>
+      <c r="AK98" s="62"/>
       <c r="AL98" s="25"/>
-      <c r="AM98" s="63"/>
+      <c r="AM98" s="62"/>
     </row>
     <row r="99" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="63"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
@@ -13834,14 +13827,14 @@
       <c r="AH99" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="AI99" s="63"/>
-      <c r="AJ99" s="63"/>
-      <c r="AK99" s="63"/>
+      <c r="AI99" s="62"/>
+      <c r="AJ99" s="62"/>
+      <c r="AK99" s="62"/>
       <c r="AL99" s="25"/>
-      <c r="AM99" s="63"/>
+      <c r="AM99" s="62"/>
     </row>
     <row r="100" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A100" s="63"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
       <c r="D100" s="25"/>
@@ -13907,14 +13900,14 @@
       <c r="AH100" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI100" s="63"/>
-      <c r="AJ100" s="63"/>
-      <c r="AK100" s="63"/>
+      <c r="AI100" s="62"/>
+      <c r="AJ100" s="62"/>
+      <c r="AK100" s="62"/>
       <c r="AL100" s="25"/>
-      <c r="AM100" s="63"/>
+      <c r="AM100" s="62"/>
     </row>
     <row r="101" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="63"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
@@ -13980,14 +13973,14 @@
       <c r="AH101" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI101" s="63"/>
-      <c r="AJ101" s="63"/>
-      <c r="AK101" s="63"/>
+      <c r="AI101" s="62"/>
+      <c r="AJ101" s="62"/>
+      <c r="AK101" s="62"/>
       <c r="AL101" s="25"/>
-      <c r="AM101" s="63"/>
+      <c r="AM101" s="62"/>
     </row>
     <row r="102" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="63"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
@@ -14053,14 +14046,14 @@
       <c r="AH102" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI102" s="63"/>
-      <c r="AJ102" s="63"/>
-      <c r="AK102" s="63"/>
+      <c r="AI102" s="62"/>
+      <c r="AJ102" s="62"/>
+      <c r="AK102" s="62"/>
       <c r="AL102" s="25"/>
-      <c r="AM102" s="63"/>
+      <c r="AM102" s="62"/>
     </row>
     <row r="103" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="63"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
@@ -14126,14 +14119,14 @@
       <c r="AH103" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI103" s="63"/>
-      <c r="AJ103" s="63"/>
-      <c r="AK103" s="63"/>
+      <c r="AI103" s="62"/>
+      <c r="AJ103" s="62"/>
+      <c r="AK103" s="62"/>
       <c r="AL103" s="25"/>
-      <c r="AM103" s="63"/>
+      <c r="AM103" s="62"/>
     </row>
     <row r="104" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" s="63"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
@@ -14164,7 +14157,7 @@
       </c>
       <c r="T104" s="26"/>
       <c r="U104" s="22" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="V104" s="25" t="s">
         <v>100</v>
@@ -14197,11 +14190,11 @@
       <c r="AH104" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI104" s="63"/>
-      <c r="AJ104" s="63"/>
-      <c r="AK104" s="63"/>
+      <c r="AI104" s="62"/>
+      <c r="AJ104" s="62"/>
+      <c r="AK104" s="62"/>
       <c r="AL104" s="25"/>
-      <c r="AM104" s="63"/>
+      <c r="AM104" s="62"/>
     </row>
     <row r="105" spans="1:39" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A105" s="25">
@@ -14294,7 +14287,7 @@
         <v>233</v>
       </c>
       <c r="AF105" s="25" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
       <c r="AG105" s="25" t="s">
         <v>342</v>
@@ -14309,7 +14302,7 @@
         <v>114</v>
       </c>
       <c r="AK105" s="25" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="AL105" s="25" t="s">
         <v>340</v>
@@ -14401,7 +14394,7 @@
         <v>663</v>
       </c>
       <c r="AD106" s="22" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="AE106" s="25" t="s">
         <v>723</v>
@@ -14416,13 +14409,13 @@
         <v>429</v>
       </c>
       <c r="AI106" s="25" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AJ106" s="25" t="s">
         <v>114</v>
       </c>
       <c r="AK106" s="25" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="AL106" s="25" t="s">
         <v>348</v>
@@ -14430,7 +14423,7 @@
       <c r="AM106" s="26"/>
     </row>
     <row r="107" spans="1:39" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="62">
+      <c r="A107" s="63">
         <v>25</v>
       </c>
       <c r="B107" s="26">
@@ -14528,22 +14521,22 @@
       <c r="AH107" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI107" s="63" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AJ107" s="63" t="s">
+      <c r="AI107" s="62" t="s">
         <v>1001</v>
       </c>
-      <c r="AK107" s="63" t="s">
-        <v>1019</v>
+      <c r="AJ107" s="62" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AK107" s="62" t="s">
+        <v>1158</v>
       </c>
       <c r="AL107" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="AM107" s="62"/>
+      <c r="AM107" s="63"/>
     </row>
     <row r="108" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="62"/>
+      <c r="A108" s="63"/>
       <c r="B108" s="26"/>
       <c r="C108" s="26"/>
       <c r="D108" s="26"/>
@@ -14613,14 +14606,14 @@
       <c r="AH108" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI108" s="63"/>
-      <c r="AJ108" s="63"/>
-      <c r="AK108" s="63"/>
+      <c r="AI108" s="62"/>
+      <c r="AJ108" s="62"/>
+      <c r="AK108" s="62"/>
       <c r="AL108" s="25"/>
-      <c r="AM108" s="62"/>
+      <c r="AM108" s="63"/>
     </row>
     <row r="109" spans="1:39" ht="170" x14ac:dyDescent="0.2">
-      <c r="A109" s="62">
+      <c r="A109" s="63">
         <v>26</v>
       </c>
       <c r="B109" s="26">
@@ -14676,10 +14669,10 @@
         <v>364</v>
       </c>
       <c r="T109" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U109" s="32" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
       <c r="V109" s="26" t="s">
         <v>58</v>
@@ -14712,22 +14705,22 @@
       <c r="AH109" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI109" s="62" t="s">
+      <c r="AI109" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AJ109" s="62" t="s">
+      <c r="AJ109" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AK109" s="62" t="s">
-        <v>1029</v>
+      <c r="AK109" s="63" t="s">
+        <v>1019</v>
       </c>
       <c r="AL109" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="AM109" s="62"/>
+      <c r="AM109" s="63"/>
     </row>
     <row r="110" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="62"/>
+      <c r="A110" s="63"/>
       <c r="B110" s="26"/>
       <c r="C110" s="26"/>
       <c r="D110" s="26"/>
@@ -14755,10 +14748,10 @@
         <v>364</v>
       </c>
       <c r="T110" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U110" s="32" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="V110" s="26" t="s">
         <v>34</v>
@@ -14793,14 +14786,14 @@
       <c r="AH110" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI110" s="62"/>
-      <c r="AJ110" s="62"/>
-      <c r="AK110" s="62"/>
+      <c r="AI110" s="63"/>
+      <c r="AJ110" s="63"/>
+      <c r="AK110" s="63"/>
       <c r="AL110" s="25"/>
-      <c r="AM110" s="62"/>
+      <c r="AM110" s="63"/>
     </row>
     <row r="111" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A111" s="62"/>
+      <c r="A111" s="63"/>
       <c r="B111" s="26"/>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
@@ -14828,10 +14821,10 @@
         <v>364</v>
       </c>
       <c r="T111" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U111" s="32" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="V111" s="26" t="s">
         <v>34</v>
@@ -14866,14 +14859,14 @@
       <c r="AH111" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI111" s="62"/>
-      <c r="AJ111" s="62"/>
-      <c r="AK111" s="62"/>
+      <c r="AI111" s="63"/>
+      <c r="AJ111" s="63"/>
+      <c r="AK111" s="63"/>
       <c r="AL111" s="25"/>
-      <c r="AM111" s="62"/>
+      <c r="AM111" s="63"/>
     </row>
     <row r="112" spans="1:39" ht="102" x14ac:dyDescent="0.2">
-      <c r="A112" s="62">
+      <c r="A112" s="63">
         <v>27</v>
       </c>
       <c r="B112" s="26">
@@ -14931,7 +14924,7 @@
         <v>371</v>
       </c>
       <c r="T112" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U112" s="26" t="s">
         <v>382</v>
@@ -14973,22 +14966,22 @@
       <c r="AH112" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI112" s="63" t="s">
-        <v>980</v>
-      </c>
-      <c r="AJ112" s="63" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AK112" s="63" t="s">
-        <v>1020</v>
+      <c r="AI112" s="62" t="s">
+        <v>979</v>
+      </c>
+      <c r="AJ112" s="62" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AK112" s="62" t="s">
+        <v>1159</v>
       </c>
       <c r="AL112" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="AM112" s="62"/>
+      <c r="AM112" s="63"/>
     </row>
     <row r="113" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="62"/>
+      <c r="A113" s="63"/>
       <c r="B113" s="26"/>
       <c r="C113" s="26"/>
       <c r="D113" s="26"/>
@@ -15018,7 +15011,7 @@
         <v>371</v>
       </c>
       <c r="T113" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U113" s="26" t="s">
         <v>382</v>
@@ -15060,14 +15053,14 @@
       <c r="AH113" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI113" s="63"/>
-      <c r="AJ113" s="63"/>
-      <c r="AK113" s="63"/>
+      <c r="AI113" s="62"/>
+      <c r="AJ113" s="62"/>
+      <c r="AK113" s="62"/>
       <c r="AL113" s="25"/>
-      <c r="AM113" s="62"/>
+      <c r="AM113" s="63"/>
     </row>
     <row r="114" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A114" s="62"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="26"/>
       <c r="C114" s="26"/>
       <c r="D114" s="26"/>
@@ -15097,7 +15090,7 @@
         <v>371</v>
       </c>
       <c r="T114" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U114" s="26" t="s">
         <v>382</v>
@@ -15139,14 +15132,14 @@
       <c r="AH114" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI114" s="63"/>
-      <c r="AJ114" s="63"/>
-      <c r="AK114" s="63"/>
+      <c r="AI114" s="62"/>
+      <c r="AJ114" s="62"/>
+      <c r="AK114" s="62"/>
       <c r="AL114" s="25"/>
-      <c r="AM114" s="62"/>
+      <c r="AM114" s="63"/>
     </row>
     <row r="115" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="62"/>
+      <c r="A115" s="63"/>
       <c r="B115" s="26"/>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
@@ -15176,7 +15169,7 @@
         <v>371</v>
       </c>
       <c r="T115" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U115" s="26" t="s">
         <v>382</v>
@@ -15218,14 +15211,14 @@
       <c r="AH115" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI115" s="63"/>
-      <c r="AJ115" s="63"/>
-      <c r="AK115" s="63"/>
+      <c r="AI115" s="62"/>
+      <c r="AJ115" s="62"/>
+      <c r="AK115" s="62"/>
       <c r="AL115" s="25"/>
-      <c r="AM115" s="62"/>
+      <c r="AM115" s="63"/>
     </row>
     <row r="116" spans="1:39" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="62">
+      <c r="A116" s="63">
         <v>28</v>
       </c>
       <c r="B116" s="26">
@@ -15321,22 +15314,22 @@
       <c r="AH116" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="AI116" s="63" t="s">
-        <v>981</v>
-      </c>
-      <c r="AJ116" s="63" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AK116" s="63" t="s">
-        <v>1021</v>
+      <c r="AI116" s="62" t="s">
+        <v>980</v>
+      </c>
+      <c r="AJ116" s="62" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AK116" s="62" t="s">
+        <v>1160</v>
       </c>
       <c r="AL116" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="AM116" s="62"/>
+      <c r="AM116" s="63"/>
     </row>
     <row r="117" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A117" s="62"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="26"/>
       <c r="C117" s="26"/>
       <c r="D117" s="26"/>
@@ -15404,14 +15397,14 @@
       <c r="AH117" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="AI117" s="63"/>
-      <c r="AJ117" s="63"/>
-      <c r="AK117" s="63"/>
+      <c r="AI117" s="62"/>
+      <c r="AJ117" s="62"/>
+      <c r="AK117" s="62"/>
       <c r="AL117" s="25"/>
-      <c r="AM117" s="62"/>
+      <c r="AM117" s="63"/>
     </row>
     <row r="118" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="62"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
       <c r="D118" s="26"/>
@@ -15479,11 +15472,11 @@
       <c r="AH118" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI118" s="63"/>
-      <c r="AJ118" s="63"/>
-      <c r="AK118" s="63"/>
+      <c r="AI118" s="62"/>
+      <c r="AJ118" s="62"/>
+      <c r="AK118" s="62"/>
       <c r="AL118" s="25"/>
-      <c r="AM118" s="62"/>
+      <c r="AM118" s="63"/>
     </row>
     <row r="119" spans="1:39" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A119" s="25">
@@ -15545,7 +15538,7 @@
       </c>
       <c r="T119" s="26"/>
       <c r="U119" s="22" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="V119" s="25" t="s">
         <v>34</v>
@@ -15576,7 +15569,7 @@
         <v>394</v>
       </c>
       <c r="AF119" s="25" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
       <c r="AG119" s="25">
         <v>-2.19</v>
@@ -15588,10 +15581,10 @@
         <v>395</v>
       </c>
       <c r="AJ119" s="25" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AK119" s="22" t="s">
-        <v>1116</v>
+        <v>1161</v>
       </c>
       <c r="AL119" s="37" t="s">
         <v>393</v>
@@ -15599,7 +15592,7 @@
       <c r="AM119" s="25"/>
     </row>
     <row r="120" spans="1:39" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A120" s="63">
+      <c r="A120" s="62">
         <v>30</v>
       </c>
       <c r="B120" s="25">
@@ -15697,24 +15690,24 @@
       <c r="AH120" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI120" s="63" t="s">
-        <v>982</v>
-      </c>
-      <c r="AJ120" s="63" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AK120" s="63" t="s">
-        <v>1026</v>
+      <c r="AI120" s="62" t="s">
+        <v>981</v>
+      </c>
+      <c r="AJ120" s="62" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AK120" s="62" t="s">
+        <v>1018</v>
       </c>
       <c r="AL120" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="AM120" s="63" t="s">
+      <c r="AM120" s="62" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="121" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A121" s="63"/>
+      <c r="A121" s="62"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
       <c r="D121" s="25"/>
@@ -15779,19 +15772,19 @@
         <v>404</v>
       </c>
       <c r="AG121" s="28" t="s">
-        <v>1117</v>
+        <v>1099</v>
       </c>
       <c r="AH121" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI121" s="63"/>
-      <c r="AJ121" s="63"/>
-      <c r="AK121" s="63"/>
+      <c r="AI121" s="62"/>
+      <c r="AJ121" s="62"/>
+      <c r="AK121" s="62"/>
       <c r="AL121" s="25"/>
-      <c r="AM121" s="63"/>
+      <c r="AM121" s="62"/>
     </row>
     <row r="122" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A122" s="63"/>
+      <c r="A122" s="62"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
       <c r="D122" s="25"/>
@@ -15856,19 +15849,19 @@
         <v>404</v>
       </c>
       <c r="AG122" s="28" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
       <c r="AH122" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI122" s="63"/>
-      <c r="AJ122" s="63"/>
-      <c r="AK122" s="63"/>
+      <c r="AI122" s="62"/>
+      <c r="AJ122" s="62"/>
+      <c r="AK122" s="62"/>
       <c r="AL122" s="25"/>
-      <c r="AM122" s="63"/>
+      <c r="AM122" s="62"/>
     </row>
     <row r="123" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="63"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
       <c r="D123" s="25"/>
@@ -15938,14 +15931,14 @@
       <c r="AH123" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI123" s="63"/>
-      <c r="AJ123" s="63"/>
-      <c r="AK123" s="63"/>
+      <c r="AI123" s="62"/>
+      <c r="AJ123" s="62"/>
+      <c r="AK123" s="62"/>
       <c r="AL123" s="25"/>
-      <c r="AM123" s="63"/>
+      <c r="AM123" s="62"/>
     </row>
     <row r="124" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A124" s="63"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
       <c r="D124" s="25"/>
@@ -16015,14 +16008,14 @@
       <c r="AH124" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI124" s="63"/>
-      <c r="AJ124" s="63"/>
-      <c r="AK124" s="63"/>
+      <c r="AI124" s="62"/>
+      <c r="AJ124" s="62"/>
+      <c r="AK124" s="62"/>
       <c r="AL124" s="25"/>
-      <c r="AM124" s="63"/>
+      <c r="AM124" s="62"/>
     </row>
     <row r="125" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="63"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
       <c r="D125" s="25"/>
@@ -16092,14 +16085,14 @@
       <c r="AH125" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AI125" s="63"/>
-      <c r="AJ125" s="63"/>
-      <c r="AK125" s="63"/>
+      <c r="AI125" s="62"/>
+      <c r="AJ125" s="62"/>
+      <c r="AK125" s="62"/>
       <c r="AL125" s="25"/>
-      <c r="AM125" s="63"/>
+      <c r="AM125" s="62"/>
     </row>
     <row r="126" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="63"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
@@ -16169,14 +16162,14 @@
       <c r="AH126" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AI126" s="63"/>
-      <c r="AJ126" s="63"/>
-      <c r="AK126" s="63"/>
+      <c r="AI126" s="62"/>
+      <c r="AJ126" s="62"/>
+      <c r="AK126" s="62"/>
       <c r="AL126" s="25"/>
-      <c r="AM126" s="63"/>
+      <c r="AM126" s="62"/>
     </row>
     <row r="127" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="63"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
       <c r="D127" s="25"/>
@@ -16246,14 +16239,14 @@
       <c r="AH127" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AI127" s="63"/>
-      <c r="AJ127" s="63"/>
-      <c r="AK127" s="63"/>
+      <c r="AI127" s="62"/>
+      <c r="AJ127" s="62"/>
+      <c r="AK127" s="62"/>
       <c r="AL127" s="25"/>
-      <c r="AM127" s="63"/>
+      <c r="AM127" s="62"/>
     </row>
     <row r="128" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A128" s="63"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
       <c r="D128" s="25"/>
@@ -16323,14 +16316,14 @@
       <c r="AH128" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="AI128" s="63"/>
-      <c r="AJ128" s="63"/>
-      <c r="AK128" s="63"/>
+      <c r="AI128" s="62"/>
+      <c r="AJ128" s="62"/>
+      <c r="AK128" s="62"/>
       <c r="AL128" s="25"/>
-      <c r="AM128" s="63"/>
+      <c r="AM128" s="62"/>
     </row>
     <row r="129" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A129" s="63"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
@@ -16386,10 +16379,10 @@
         <v>666</v>
       </c>
       <c r="AD129" s="25" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="AE129" s="25" t="s">
-        <v>233</v>
+        <v>1149</v>
       </c>
       <c r="AF129" s="25" t="s">
         <v>138</v>
@@ -16400,14 +16393,14 @@
       <c r="AH129" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="AI129" s="63"/>
-      <c r="AJ129" s="63"/>
-      <c r="AK129" s="63"/>
+      <c r="AI129" s="62"/>
+      <c r="AJ129" s="62"/>
+      <c r="AK129" s="62"/>
       <c r="AL129" s="25"/>
-      <c r="AM129" s="63"/>
+      <c r="AM129" s="62"/>
     </row>
     <row r="130" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="63"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
@@ -16477,14 +16470,14 @@
       <c r="AH130" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AI130" s="63"/>
-      <c r="AJ130" s="63"/>
-      <c r="AK130" s="63"/>
+      <c r="AI130" s="62"/>
+      <c r="AJ130" s="62"/>
+      <c r="AK130" s="62"/>
       <c r="AL130" s="25"/>
-      <c r="AM130" s="63"/>
+      <c r="AM130" s="62"/>
     </row>
     <row r="131" spans="1:39" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A131" s="63">
+      <c r="A131" s="62">
         <v>31</v>
       </c>
       <c r="B131" s="25">
@@ -16542,7 +16535,7 @@
         <v>427</v>
       </c>
       <c r="T131" s="25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U131" s="25" t="s">
         <v>428</v>
@@ -16584,22 +16577,22 @@
       <c r="AH131" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI131" s="63" t="s">
-        <v>983</v>
-      </c>
-      <c r="AJ131" s="63" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AK131" s="63" t="s">
-        <v>1026</v>
+      <c r="AI131" s="62" t="s">
+        <v>982</v>
+      </c>
+      <c r="AJ131" s="62" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AK131" s="62" t="s">
+        <v>1018</v>
       </c>
       <c r="AL131" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="AM131" s="63"/>
+      <c r="AM131" s="62"/>
     </row>
     <row r="132" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="63"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
       <c r="D132" s="25"/>
@@ -16629,7 +16622,7 @@
         <v>427</v>
       </c>
       <c r="T132" s="25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U132" s="25" t="s">
         <v>428</v>
@@ -16671,14 +16664,14 @@
       <c r="AH132" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI132" s="63"/>
-      <c r="AJ132" s="63"/>
-      <c r="AK132" s="63"/>
+      <c r="AI132" s="62"/>
+      <c r="AJ132" s="62"/>
+      <c r="AK132" s="62"/>
       <c r="AL132" s="25"/>
-      <c r="AM132" s="63"/>
+      <c r="AM132" s="62"/>
     </row>
     <row r="133" spans="1:39" s="1" customFormat="1" ht="187" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="67">
+      <c r="A133" s="65">
         <v>32</v>
       </c>
       <c r="B133" s="25">
@@ -16736,7 +16729,7 @@
         <v>436</v>
       </c>
       <c r="T133" s="25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U133" s="25" t="s">
         <v>428</v>
@@ -16778,22 +16771,22 @@
       <c r="AH133" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI133" s="63" t="s">
+      <c r="AI133" s="62" t="s">
         <v>441</v>
       </c>
-      <c r="AJ133" s="67" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AK133" s="67" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AL133" s="63" t="s">
+      <c r="AJ133" s="65" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AK133" s="65" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AL133" s="62" t="s">
         <v>435</v>
       </c>
-      <c r="AM133" s="63"/>
+      <c r="AM133" s="62"/>
     </row>
     <row r="134" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="68"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
@@ -16823,7 +16816,7 @@
         <v>436</v>
       </c>
       <c r="T134" s="25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U134" s="25" t="s">
         <v>428</v>
@@ -16865,14 +16858,14 @@
       <c r="AH134" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI134" s="63"/>
-      <c r="AJ134" s="68"/>
-      <c r="AK134" s="68"/>
-      <c r="AL134" s="63"/>
-      <c r="AM134" s="63"/>
+      <c r="AI134" s="62"/>
+      <c r="AJ134" s="66"/>
+      <c r="AK134" s="66"/>
+      <c r="AL134" s="62"/>
+      <c r="AM134" s="62"/>
     </row>
     <row r="135" spans="1:39" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" s="64"/>
+      <c r="A135" s="67"/>
       <c r="B135" s="22"/>
       <c r="C135" s="22"/>
       <c r="D135" s="22"/>
@@ -16883,7 +16876,7 @@
         <v>3</v>
       </c>
       <c r="I135" s="22" t="s">
-        <v>1119</v>
+        <v>1101</v>
       </c>
       <c r="J135" s="22">
         <v>3</v>
@@ -16902,7 +16895,7 @@
         <v>436</v>
       </c>
       <c r="T135" s="25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U135" s="25" t="s">
         <v>428</v>
@@ -16945,13 +16938,13 @@
         <v>430</v>
       </c>
       <c r="AI135" s="22"/>
-      <c r="AJ135" s="64"/>
-      <c r="AK135" s="64"/>
+      <c r="AJ135" s="67"/>
+      <c r="AK135" s="67"/>
       <c r="AL135" s="22"/>
       <c r="AM135" s="22"/>
     </row>
     <row r="136" spans="1:39" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="62">
+      <c r="A136" s="63">
         <v>33</v>
       </c>
       <c r="B136" s="26">
@@ -17010,7 +17003,7 @@
       </c>
       <c r="T136" s="26"/>
       <c r="U136" s="32" t="s">
-        <v>1120</v>
+        <v>1102</v>
       </c>
       <c r="V136" s="32" t="s">
         <v>381</v>
@@ -17019,7 +17012,7 @@
         <v>34</v>
       </c>
       <c r="X136" s="32" t="s">
-        <v>1121</v>
+        <v>1103</v>
       </c>
       <c r="Y136" s="25"/>
       <c r="Z136" s="26" t="s">
@@ -17049,22 +17042,22 @@
       <c r="AH136" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI136" s="62" t="s">
+      <c r="AI136" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AJ136" s="62" t="s">
+      <c r="AJ136" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AK136" s="62" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AL136" s="63"/>
-      <c r="AM136" s="63" t="s">
-        <v>1166</v>
+      <c r="AK136" s="63" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AL136" s="62"/>
+      <c r="AM136" s="62" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="137" spans="1:39" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="62"/>
+      <c r="A137" s="63"/>
       <c r="B137" s="26"/>
       <c r="C137" s="26"/>
       <c r="D137" s="35"/>
@@ -17095,7 +17088,7 @@
       </c>
       <c r="T137" s="26"/>
       <c r="U137" s="32" t="s">
-        <v>1120</v>
+        <v>1102</v>
       </c>
       <c r="V137" s="32" t="s">
         <v>381</v>
@@ -17104,7 +17097,7 @@
         <v>34</v>
       </c>
       <c r="X137" s="32" t="s">
-        <v>1122</v>
+        <v>1104</v>
       </c>
       <c r="Y137" s="26"/>
       <c r="Z137" s="26" t="s">
@@ -17134,14 +17127,14 @@
       <c r="AH137" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI137" s="62"/>
-      <c r="AJ137" s="62"/>
-      <c r="AK137" s="62"/>
-      <c r="AL137" s="63"/>
-      <c r="AM137" s="63"/>
+      <c r="AI137" s="63"/>
+      <c r="AJ137" s="63"/>
+      <c r="AK137" s="63"/>
+      <c r="AL137" s="62"/>
+      <c r="AM137" s="62"/>
     </row>
     <row r="138" spans="1:39" s="1" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="62"/>
+      <c r="A138" s="63"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
       <c r="D138" s="35"/>
@@ -17209,11 +17202,11 @@
       <c r="AH138" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="AI138" s="62"/>
-      <c r="AJ138" s="62"/>
-      <c r="AK138" s="62"/>
-      <c r="AL138" s="63"/>
-      <c r="AM138" s="63"/>
+      <c r="AI138" s="63"/>
+      <c r="AJ138" s="63"/>
+      <c r="AK138" s="63"/>
+      <c r="AL138" s="62"/>
+      <c r="AM138" s="62"/>
     </row>
     <row r="139" spans="1:39" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A139" s="25">
@@ -17321,7 +17314,7 @@
         <v>114</v>
       </c>
       <c r="AK139" s="25" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="AL139" s="25" t="s">
         <v>449</v>
@@ -17331,7 +17324,7 @@
       </c>
     </row>
     <row r="140" spans="1:39" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="62">
+      <c r="A140" s="63">
         <v>35</v>
       </c>
       <c r="B140" s="26">
@@ -17427,22 +17420,22 @@
       <c r="AH140" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI140" s="63" t="s">
+      <c r="AI140" s="62" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AJ140" s="62" t="s">
         <v>1006</v>
       </c>
-      <c r="AJ140" s="63" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AK140" s="66" t="s">
-        <v>1167</v>
+      <c r="AK140" s="68" t="s">
+        <v>1162</v>
       </c>
       <c r="AL140" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="AM140" s="62"/>
+      <c r="AM140" s="63"/>
     </row>
     <row r="141" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A141" s="62"/>
+      <c r="A141" s="63"/>
       <c r="B141" s="26"/>
       <c r="C141" s="26"/>
       <c r="D141" s="26"/>
@@ -17510,14 +17503,14 @@
       <c r="AH141" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI141" s="63"/>
-      <c r="AJ141" s="63"/>
-      <c r="AK141" s="66"/>
+      <c r="AI141" s="62"/>
+      <c r="AJ141" s="62"/>
+      <c r="AK141" s="68"/>
       <c r="AL141" s="25"/>
-      <c r="AM141" s="62"/>
+      <c r="AM141" s="63"/>
     </row>
     <row r="142" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A142" s="62"/>
+      <c r="A142" s="63"/>
       <c r="B142" s="26"/>
       <c r="C142" s="26"/>
       <c r="D142" s="26"/>
@@ -17585,14 +17578,14 @@
       <c r="AH142" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI142" s="63"/>
-      <c r="AJ142" s="63"/>
-      <c r="AK142" s="66"/>
+      <c r="AI142" s="62"/>
+      <c r="AJ142" s="62"/>
+      <c r="AK142" s="68"/>
       <c r="AL142" s="25"/>
-      <c r="AM142" s="62"/>
+      <c r="AM142" s="63"/>
     </row>
     <row r="143" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A143" s="62"/>
+      <c r="A143" s="63"/>
       <c r="B143" s="26"/>
       <c r="C143" s="26"/>
       <c r="D143" s="26"/>
@@ -17660,14 +17653,14 @@
       <c r="AH143" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI143" s="63"/>
-      <c r="AJ143" s="63"/>
-      <c r="AK143" s="66"/>
+      <c r="AI143" s="62"/>
+      <c r="AJ143" s="62"/>
+      <c r="AK143" s="68"/>
       <c r="AL143" s="25"/>
-      <c r="AM143" s="62"/>
+      <c r="AM143" s="63"/>
     </row>
     <row r="144" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" s="62"/>
+      <c r="A144" s="63"/>
       <c r="B144" s="26"/>
       <c r="C144" s="26"/>
       <c r="D144" s="26"/>
@@ -17715,7 +17708,7 @@
         <v>9</v>
       </c>
       <c r="AB144" s="25" t="s">
-        <v>1123</v>
+        <v>1105</v>
       </c>
       <c r="AC144" s="25" t="s">
         <v>665</v>
@@ -17735,14 +17728,14 @@
       <c r="AH144" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI144" s="63"/>
-      <c r="AJ144" s="63"/>
-      <c r="AK144" s="66"/>
+      <c r="AI144" s="62"/>
+      <c r="AJ144" s="62"/>
+      <c r="AK144" s="68"/>
       <c r="AL144" s="25"/>
-      <c r="AM144" s="62"/>
+      <c r="AM144" s="63"/>
     </row>
     <row r="145" spans="1:39" ht="272" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="62">
+      <c r="A145" s="63">
         <v>36</v>
       </c>
       <c r="B145" s="25" t="s">
@@ -17800,7 +17793,7 @@
         <v>490</v>
       </c>
       <c r="T145" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U145" s="26" t="s">
         <v>478</v>
@@ -17842,14 +17835,14 @@
       <c r="AH145" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI145" s="63" t="s">
+      <c r="AI145" s="62" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AJ145" s="62" t="s">
         <v>1017</v>
       </c>
-      <c r="AJ145" s="63" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AK145" s="63" t="s">
-        <v>1035</v>
+      <c r="AK145" s="62" t="s">
+        <v>1163</v>
       </c>
       <c r="AL145" s="25" t="s">
         <v>491</v>
@@ -17857,7 +17850,7 @@
       <c r="AM145" s="26"/>
     </row>
     <row r="146" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A146" s="62"/>
+      <c r="A146" s="63"/>
       <c r="B146" s="26"/>
       <c r="C146" s="26"/>
       <c r="D146" s="26"/>
@@ -17887,7 +17880,7 @@
         <v>490</v>
       </c>
       <c r="T146" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U146" s="26" t="s">
         <v>478</v>
@@ -17929,14 +17922,14 @@
       <c r="AH146" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI146" s="63"/>
-      <c r="AJ146" s="63"/>
-      <c r="AK146" s="63"/>
+      <c r="AI146" s="62"/>
+      <c r="AJ146" s="62"/>
+      <c r="AK146" s="62"/>
       <c r="AL146" s="25"/>
       <c r="AM146" s="26"/>
     </row>
     <row r="147" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A147" s="62"/>
+      <c r="A147" s="63"/>
       <c r="B147" s="26"/>
       <c r="C147" s="26"/>
       <c r="D147" s="26"/>
@@ -17966,7 +17959,7 @@
         <v>490</v>
       </c>
       <c r="T147" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U147" s="26" t="s">
         <v>478</v>
@@ -18008,14 +18001,14 @@
       <c r="AH147" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI147" s="63"/>
-      <c r="AJ147" s="63"/>
-      <c r="AK147" s="63"/>
+      <c r="AI147" s="62"/>
+      <c r="AJ147" s="62"/>
+      <c r="AK147" s="62"/>
       <c r="AL147" s="25"/>
       <c r="AM147" s="26"/>
     </row>
     <row r="148" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A148" s="62"/>
+      <c r="A148" s="63"/>
       <c r="B148" s="26"/>
       <c r="C148" s="26"/>
       <c r="D148" s="26"/>
@@ -18045,7 +18038,7 @@
         <v>490</v>
       </c>
       <c r="T148" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U148" s="26" t="s">
         <v>478</v>
@@ -18087,14 +18080,14 @@
       <c r="AH148" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI148" s="63"/>
-      <c r="AJ148" s="63"/>
-      <c r="AK148" s="63"/>
+      <c r="AI148" s="62"/>
+      <c r="AJ148" s="62"/>
+      <c r="AK148" s="62"/>
       <c r="AL148" s="25"/>
       <c r="AM148" s="26"/>
     </row>
     <row r="149" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A149" s="62"/>
+      <c r="A149" s="63"/>
       <c r="B149" s="26"/>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
@@ -18124,7 +18117,7 @@
         <v>490</v>
       </c>
       <c r="T149" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U149" s="26" t="s">
         <v>478</v>
@@ -18166,14 +18159,14 @@
       <c r="AH149" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI149" s="63"/>
-      <c r="AJ149" s="63"/>
-      <c r="AK149" s="63"/>
+      <c r="AI149" s="62"/>
+      <c r="AJ149" s="62"/>
+      <c r="AK149" s="62"/>
       <c r="AL149" s="25"/>
       <c r="AM149" s="26"/>
     </row>
     <row r="150" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A150" s="62"/>
+      <c r="A150" s="63"/>
       <c r="B150" s="26"/>
       <c r="C150" s="26"/>
       <c r="D150" s="26"/>
@@ -18203,7 +18196,7 @@
         <v>490</v>
       </c>
       <c r="T150" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U150" s="26" t="s">
         <v>478</v>
@@ -18245,14 +18238,14 @@
       <c r="AH150" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI150" s="63"/>
-      <c r="AJ150" s="63"/>
-      <c r="AK150" s="63"/>
+      <c r="AI150" s="62"/>
+      <c r="AJ150" s="62"/>
+      <c r="AK150" s="62"/>
       <c r="AL150" s="25"/>
       <c r="AM150" s="26"/>
     </row>
     <row r="151" spans="1:39" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A151" s="63">
+      <c r="A151" s="62">
         <v>37</v>
       </c>
       <c r="B151" s="25">
@@ -18346,22 +18339,22 @@
       <c r="AH151" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="AI151" s="63" t="s">
+      <c r="AI151" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AJ151" s="63" t="s">
+      <c r="AJ151" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AK151" s="63" t="s">
-        <v>1029</v>
+      <c r="AK151" s="62" t="s">
+        <v>1019</v>
       </c>
       <c r="AL151" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="AM151" s="63"/>
+      <c r="AM151" s="62"/>
     </row>
     <row r="152" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A152" s="63"/>
+      <c r="A152" s="62"/>
       <c r="B152" s="25"/>
       <c r="C152" s="25"/>
       <c r="D152" s="25"/>
@@ -18427,14 +18420,14 @@
       <c r="AH152" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="AI152" s="63"/>
-      <c r="AJ152" s="63"/>
-      <c r="AK152" s="63"/>
+      <c r="AI152" s="62"/>
+      <c r="AJ152" s="62"/>
+      <c r="AK152" s="62"/>
       <c r="AL152" s="25"/>
-      <c r="AM152" s="63"/>
+      <c r="AM152" s="62"/>
     </row>
     <row r="153" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A153" s="63"/>
+      <c r="A153" s="62"/>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
       <c r="D153" s="25"/>
@@ -18500,14 +18493,14 @@
       <c r="AH153" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI153" s="63"/>
-      <c r="AJ153" s="63"/>
-      <c r="AK153" s="63"/>
+      <c r="AI153" s="62"/>
+      <c r="AJ153" s="62"/>
+      <c r="AK153" s="62"/>
       <c r="AL153" s="25"/>
-      <c r="AM153" s="63"/>
+      <c r="AM153" s="62"/>
     </row>
     <row r="154" spans="1:39" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="63">
+      <c r="A154" s="62">
         <v>38</v>
       </c>
       <c r="B154" s="25">
@@ -18566,7 +18559,7 @@
       </c>
       <c r="T154" s="26"/>
       <c r="U154" s="33" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="V154" s="22" t="s">
         <v>218</v>
@@ -18603,24 +18596,24 @@
       <c r="AH154" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI154" s="63" t="s">
-        <v>984</v>
-      </c>
-      <c r="AJ154" s="63" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AK154" s="63" t="s">
-        <v>1031</v>
+      <c r="AI154" s="62" t="s">
+        <v>983</v>
+      </c>
+      <c r="AJ154" s="62" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AK154" s="62" t="s">
+        <v>1164</v>
       </c>
       <c r="AL154" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="AM154" s="63" t="s">
+      <c r="AM154" s="62" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="155" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A155" s="63"/>
+      <c r="A155" s="62"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
       <c r="D155" s="25"/>
@@ -18651,7 +18644,7 @@
       </c>
       <c r="T155" s="26"/>
       <c r="U155" s="33" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="V155" s="22" t="s">
         <v>218</v>
@@ -18688,14 +18681,14 @@
       <c r="AH155" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI155" s="63"/>
-      <c r="AJ155" s="63"/>
-      <c r="AK155" s="63"/>
+      <c r="AI155" s="62"/>
+      <c r="AJ155" s="62"/>
+      <c r="AK155" s="62"/>
       <c r="AL155" s="25"/>
-      <c r="AM155" s="63"/>
+      <c r="AM155" s="62"/>
     </row>
     <row r="156" spans="1:39" ht="51" x14ac:dyDescent="0.2">
-      <c r="A156" s="63"/>
+      <c r="A156" s="62"/>
       <c r="B156" s="26"/>
       <c r="C156" s="26"/>
       <c r="D156" s="26"/>
@@ -18726,7 +18719,7 @@
       </c>
       <c r="T156" s="26"/>
       <c r="U156" s="33" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="V156" s="22" t="s">
         <v>218</v>
@@ -18763,14 +18756,14 @@
       <c r="AH156" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="AI156" s="63"/>
-      <c r="AJ156" s="63"/>
-      <c r="AK156" s="63"/>
+      <c r="AI156" s="62"/>
+      <c r="AJ156" s="62"/>
+      <c r="AK156" s="62"/>
       <c r="AL156" s="25"/>
-      <c r="AM156" s="63"/>
+      <c r="AM156" s="62"/>
     </row>
     <row r="157" spans="1:39" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A157" s="63">
+      <c r="A157" s="62">
         <v>39</v>
       </c>
       <c r="B157" s="25">
@@ -18829,7 +18822,7 @@
       </c>
       <c r="T157" s="26"/>
       <c r="U157" s="22" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
       <c r="V157" s="25" t="s">
         <v>218</v>
@@ -18866,24 +18859,24 @@
       <c r="AH157" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI157" s="63" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AJ157" s="63" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AK157" s="63" t="s">
-        <v>1128</v>
+      <c r="AI157" s="62" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AJ157" s="62" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AK157" s="62" t="s">
+        <v>1165</v>
       </c>
       <c r="AL157" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="AM157" s="63" t="s">
+      <c r="AM157" s="62" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="158" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A158" s="63"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
       <c r="D158" s="25"/>
@@ -18914,7 +18907,7 @@
       </c>
       <c r="T158" s="26"/>
       <c r="U158" s="22" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
       <c r="V158" s="25" t="s">
         <v>218</v>
@@ -18951,14 +18944,14 @@
       <c r="AH158" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI158" s="63"/>
-      <c r="AJ158" s="63"/>
-      <c r="AK158" s="63"/>
+      <c r="AI158" s="62"/>
+      <c r="AJ158" s="62"/>
+      <c r="AK158" s="62"/>
       <c r="AL158" s="25"/>
-      <c r="AM158" s="63"/>
+      <c r="AM158" s="62"/>
     </row>
     <row r="159" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A159" s="63"/>
+      <c r="A159" s="62"/>
       <c r="B159" s="25"/>
       <c r="C159" s="25"/>
       <c r="D159" s="25"/>
@@ -18989,7 +18982,7 @@
       </c>
       <c r="T159" s="26"/>
       <c r="U159" s="22" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
       <c r="V159" s="25" t="s">
         <v>218</v>
@@ -19026,14 +19019,14 @@
       <c r="AH159" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI159" s="63"/>
-      <c r="AJ159" s="63"/>
-      <c r="AK159" s="63"/>
+      <c r="AI159" s="62"/>
+      <c r="AJ159" s="62"/>
+      <c r="AK159" s="62"/>
       <c r="AL159" s="25"/>
-      <c r="AM159" s="63"/>
+      <c r="AM159" s="62"/>
     </row>
     <row r="160" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A160" s="63"/>
+      <c r="A160" s="62"/>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
       <c r="D160" s="25"/>
@@ -19064,7 +19057,7 @@
       </c>
       <c r="T160" s="26"/>
       <c r="U160" s="22" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
       <c r="V160" s="25" t="s">
         <v>218</v>
@@ -19101,14 +19094,14 @@
       <c r="AH160" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI160" s="63"/>
-      <c r="AJ160" s="63"/>
-      <c r="AK160" s="63"/>
+      <c r="AI160" s="62"/>
+      <c r="AJ160" s="62"/>
+      <c r="AK160" s="62"/>
       <c r="AL160" s="25"/>
-      <c r="AM160" s="63"/>
+      <c r="AM160" s="62"/>
     </row>
     <row r="161" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A161" s="63"/>
+      <c r="A161" s="62"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
       <c r="D161" s="25"/>
@@ -19139,7 +19132,7 @@
       </c>
       <c r="T161" s="26"/>
       <c r="U161" s="22" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
       <c r="V161" s="25" t="s">
         <v>218</v>
@@ -19172,14 +19165,14 @@
       <c r="AH161" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI161" s="63"/>
-      <c r="AJ161" s="63"/>
-      <c r="AK161" s="63"/>
+      <c r="AI161" s="62"/>
+      <c r="AJ161" s="62"/>
+      <c r="AK161" s="62"/>
       <c r="AL161" s="25"/>
-      <c r="AM161" s="63"/>
+      <c r="AM161" s="62"/>
     </row>
     <row r="162" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A162" s="63"/>
+      <c r="A162" s="62"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
       <c r="D162" s="25"/>
@@ -19249,14 +19242,14 @@
       <c r="AH162" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI162" s="63"/>
-      <c r="AJ162" s="63"/>
-      <c r="AK162" s="63"/>
+      <c r="AI162" s="62"/>
+      <c r="AJ162" s="62"/>
+      <c r="AK162" s="62"/>
       <c r="AL162" s="25"/>
-      <c r="AM162" s="63"/>
+      <c r="AM162" s="62"/>
     </row>
     <row r="163" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A163" s="63"/>
+      <c r="A163" s="62"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
       <c r="D163" s="25"/>
@@ -19326,14 +19319,14 @@
       <c r="AH163" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI163" s="63"/>
-      <c r="AJ163" s="63"/>
-      <c r="AK163" s="63"/>
+      <c r="AI163" s="62"/>
+      <c r="AJ163" s="62"/>
+      <c r="AK163" s="62"/>
       <c r="AL163" s="25"/>
-      <c r="AM163" s="63"/>
+      <c r="AM163" s="62"/>
     </row>
     <row r="164" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A164" s="63"/>
+      <c r="A164" s="62"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
       <c r="D164" s="25"/>
@@ -19403,14 +19396,14 @@
       <c r="AH164" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI164" s="63"/>
-      <c r="AJ164" s="63"/>
-      <c r="AK164" s="63"/>
+      <c r="AI164" s="62"/>
+      <c r="AJ164" s="62"/>
+      <c r="AK164" s="62"/>
       <c r="AL164" s="25"/>
-      <c r="AM164" s="63"/>
+      <c r="AM164" s="62"/>
     </row>
     <row r="165" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A165" s="63"/>
+      <c r="A165" s="62"/>
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
       <c r="D165" s="25"/>
@@ -19480,14 +19473,14 @@
       <c r="AH165" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI165" s="63"/>
-      <c r="AJ165" s="63"/>
-      <c r="AK165" s="63"/>
+      <c r="AI165" s="62"/>
+      <c r="AJ165" s="62"/>
+      <c r="AK165" s="62"/>
       <c r="AL165" s="25"/>
-      <c r="AM165" s="63"/>
+      <c r="AM165" s="62"/>
     </row>
     <row r="166" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A166" s="63"/>
+      <c r="A166" s="62"/>
       <c r="B166" s="25"/>
       <c r="C166" s="25"/>
       <c r="D166" s="25"/>
@@ -19553,14 +19546,14 @@
       <c r="AH166" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI166" s="63"/>
-      <c r="AJ166" s="63"/>
-      <c r="AK166" s="63"/>
+      <c r="AI166" s="62"/>
+      <c r="AJ166" s="62"/>
+      <c r="AK166" s="62"/>
       <c r="AL166" s="25"/>
-      <c r="AM166" s="63"/>
+      <c r="AM166" s="62"/>
     </row>
     <row r="167" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A167" s="63"/>
+      <c r="A167" s="62"/>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
       <c r="D167" s="25"/>
@@ -19591,7 +19584,7 @@
       </c>
       <c r="T167" s="26"/>
       <c r="U167" s="22" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
       <c r="V167" s="25" t="s">
         <v>521</v>
@@ -19628,14 +19621,14 @@
       <c r="AH167" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI167" s="63"/>
-      <c r="AJ167" s="63"/>
-      <c r="AK167" s="63"/>
+      <c r="AI167" s="62"/>
+      <c r="AJ167" s="62"/>
+      <c r="AK167" s="62"/>
       <c r="AL167" s="25"/>
-      <c r="AM167" s="63"/>
+      <c r="AM167" s="62"/>
     </row>
     <row r="168" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A168" s="63"/>
+      <c r="A168" s="62"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
       <c r="D168" s="25"/>
@@ -19666,7 +19659,7 @@
       </c>
       <c r="T168" s="26"/>
       <c r="U168" s="22" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
       <c r="V168" s="25" t="s">
         <v>521</v>
@@ -19703,11 +19696,11 @@
       <c r="AH168" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI168" s="63"/>
-      <c r="AJ168" s="63"/>
-      <c r="AK168" s="63"/>
+      <c r="AI168" s="62"/>
+      <c r="AJ168" s="62"/>
+      <c r="AK168" s="62"/>
       <c r="AL168" s="25"/>
-      <c r="AM168" s="63"/>
+      <c r="AM168" s="62"/>
     </row>
     <row r="169" spans="1:39" s="1" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A169" s="25">
@@ -19768,7 +19761,7 @@
         <v>531</v>
       </c>
       <c r="T169" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U169" s="25" t="s">
         <v>530</v>
@@ -19798,7 +19791,7 @@
         <v>666</v>
       </c>
       <c r="AD169" s="22" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="AE169" s="25"/>
       <c r="AF169" s="25" t="s">
@@ -19811,13 +19804,13 @@
         <v>429</v>
       </c>
       <c r="AI169" s="25" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AJ169" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AK169" s="25" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="AL169" s="25" t="s">
         <v>532</v>
@@ -19909,10 +19902,10 @@
         <v>666</v>
       </c>
       <c r="AD170" s="25" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="AE170" s="25" t="s">
-        <v>728</v>
+        <v>1150</v>
       </c>
       <c r="AF170" s="26" t="s">
         <v>199</v>
@@ -19924,19 +19917,19 @@
         <v>429</v>
       </c>
       <c r="AI170" s="22" t="s">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="AJ170" s="25" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AK170" s="25" t="s">
-        <v>1022</v>
+        <v>1166</v>
       </c>
       <c r="AL170" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AM170" s="25" t="s">
-        <v>1169</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="171" spans="1:39" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -20044,10 +20037,10 @@
         <v>545</v>
       </c>
       <c r="AJ171" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AK171" s="25" t="s">
-        <v>1023</v>
+        <v>1167</v>
       </c>
       <c r="AL171" s="25" t="s">
         <v>546</v>
@@ -20055,7 +20048,7 @@
       <c r="AM171" s="25"/>
     </row>
     <row r="172" spans="1:39" s="1" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="63">
+      <c r="A172" s="62">
         <v>43</v>
       </c>
       <c r="B172" s="25">
@@ -20114,7 +20107,7 @@
       </c>
       <c r="T172" s="26"/>
       <c r="U172" s="22" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="V172" s="25" t="s">
         <v>174</v>
@@ -20137,10 +20130,10 @@
         <v>664</v>
       </c>
       <c r="AD172" s="22" t="s">
-        <v>1130</v>
+        <v>1111</v>
       </c>
       <c r="AE172" s="25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AF172" s="25" t="s">
         <v>552</v>
@@ -20151,22 +20144,22 @@
       <c r="AH172" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI172" s="63" t="s">
-        <v>989</v>
-      </c>
-      <c r="AJ172" s="63" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AK172" s="63" t="s">
-        <v>1024</v>
+      <c r="AI172" s="62" t="s">
+        <v>988</v>
+      </c>
+      <c r="AJ172" s="62" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AK172" s="62" t="s">
+        <v>1168</v>
       </c>
       <c r="AL172" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="AM172" s="63"/>
+      <c r="AM172" s="62"/>
     </row>
     <row r="173" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A173" s="63"/>
+      <c r="A173" s="62"/>
       <c r="B173" s="25"/>
       <c r="C173" s="25"/>
       <c r="D173" s="25"/>
@@ -20197,7 +20190,7 @@
       </c>
       <c r="T173" s="26"/>
       <c r="U173" s="22" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="V173" s="25" t="s">
         <v>174</v>
@@ -20234,14 +20227,14 @@
       <c r="AH173" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI173" s="63"/>
-      <c r="AJ173" s="63"/>
-      <c r="AK173" s="63"/>
+      <c r="AI173" s="62"/>
+      <c r="AJ173" s="62"/>
+      <c r="AK173" s="62"/>
       <c r="AL173" s="25"/>
-      <c r="AM173" s="63"/>
+      <c r="AM173" s="62"/>
     </row>
     <row r="174" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A174" s="63"/>
+      <c r="A174" s="62"/>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
       <c r="D174" s="25"/>
@@ -20272,7 +20265,7 @@
       </c>
       <c r="T174" s="26"/>
       <c r="U174" s="22" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="V174" s="25" t="s">
         <v>174</v>
@@ -20309,14 +20302,14 @@
       <c r="AH174" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI174" s="63"/>
-      <c r="AJ174" s="63"/>
-      <c r="AK174" s="63"/>
+      <c r="AI174" s="62"/>
+      <c r="AJ174" s="62"/>
+      <c r="AK174" s="62"/>
       <c r="AL174" s="25"/>
-      <c r="AM174" s="63"/>
+      <c r="AM174" s="62"/>
     </row>
     <row r="175" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A175" s="63"/>
+      <c r="A175" s="62"/>
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
       <c r="D175" s="25"/>
@@ -20347,7 +20340,7 @@
       </c>
       <c r="T175" s="26"/>
       <c r="U175" s="22" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="V175" s="25" t="s">
         <v>174</v>
@@ -20373,7 +20366,7 @@
         <v>557</v>
       </c>
       <c r="AE175" s="25" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AF175" s="25" t="s">
         <v>12</v>
@@ -20384,14 +20377,14 @@
       <c r="AH175" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI175" s="63"/>
-      <c r="AJ175" s="63"/>
-      <c r="AK175" s="63"/>
+      <c r="AI175" s="62"/>
+      <c r="AJ175" s="62"/>
+      <c r="AK175" s="62"/>
       <c r="AL175" s="25"/>
-      <c r="AM175" s="63"/>
+      <c r="AM175" s="62"/>
     </row>
     <row r="176" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A176" s="63"/>
+      <c r="A176" s="62"/>
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
       <c r="D176" s="25"/>
@@ -20422,7 +20415,7 @@
       </c>
       <c r="T176" s="26"/>
       <c r="U176" s="22" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="V176" s="25" t="s">
         <v>174</v>
@@ -20448,7 +20441,7 @@
         <v>557</v>
       </c>
       <c r="AE176" s="25" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AF176" s="25" t="s">
         <v>12</v>
@@ -20459,14 +20452,14 @@
       <c r="AH176" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="AI176" s="63"/>
-      <c r="AJ176" s="63"/>
-      <c r="AK176" s="63"/>
+      <c r="AI176" s="62"/>
+      <c r="AJ176" s="62"/>
+      <c r="AK176" s="62"/>
       <c r="AL176" s="25"/>
-      <c r="AM176" s="63"/>
+      <c r="AM176" s="62"/>
     </row>
     <row r="177" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A177" s="63">
+      <c r="A177" s="62">
         <v>44</v>
       </c>
       <c r="B177" s="25">
@@ -20562,14 +20555,14 @@
       <c r="AH177" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI177" s="69" t="s">
-        <v>986</v>
-      </c>
-      <c r="AJ177" s="69" t="s">
+      <c r="AI177" s="64" t="s">
+        <v>985</v>
+      </c>
+      <c r="AJ177" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="AK177" s="69" t="s">
-        <v>1029</v>
+      <c r="AK177" s="64" t="s">
+        <v>1019</v>
       </c>
       <c r="AL177" s="25" t="s">
         <v>565</v>
@@ -20577,7 +20570,7 @@
       <c r="AM177" s="25"/>
     </row>
     <row r="178" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A178" s="63"/>
+      <c r="A178" s="62"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
       <c r="D178" s="25"/>
@@ -20615,7 +20608,7 @@
         <v>34</v>
       </c>
       <c r="X178" s="22" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="Y178" s="25"/>
       <c r="Z178" s="25" t="s">
@@ -20645,14 +20638,14 @@
       <c r="AH178" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI178" s="69"/>
-      <c r="AJ178" s="69"/>
-      <c r="AK178" s="69"/>
+      <c r="AI178" s="64"/>
+      <c r="AJ178" s="64"/>
+      <c r="AK178" s="64"/>
       <c r="AL178" s="25"/>
       <c r="AM178" s="25"/>
     </row>
     <row r="179" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A179" s="63"/>
+      <c r="A179" s="62"/>
       <c r="B179" s="25"/>
       <c r="C179" s="25"/>
       <c r="D179" s="25"/>
@@ -20690,7 +20683,7 @@
         <v>34</v>
       </c>
       <c r="X179" s="22" t="s">
-        <v>1132</v>
+        <v>1113</v>
       </c>
       <c r="Y179" s="25"/>
       <c r="Z179" s="25" t="s">
@@ -20720,14 +20713,14 @@
       <c r="AH179" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI179" s="69"/>
-      <c r="AJ179" s="69"/>
-      <c r="AK179" s="69"/>
+      <c r="AI179" s="64"/>
+      <c r="AJ179" s="64"/>
+      <c r="AK179" s="64"/>
       <c r="AL179" s="25"/>
       <c r="AM179" s="25"/>
     </row>
     <row r="180" spans="1:39" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="63">
+      <c r="A180" s="62">
         <v>45</v>
       </c>
       <c r="B180" s="25">
@@ -20823,22 +20816,22 @@
       <c r="AH180" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI180" s="66" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AJ180" s="66" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AK180" s="63" t="s">
-        <v>1032</v>
+      <c r="AI180" s="68" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AJ180" s="68" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AK180" s="62" t="s">
+        <v>1169</v>
       </c>
       <c r="AL180" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="AM180" s="63"/>
+      <c r="AM180" s="62"/>
     </row>
     <row r="181" spans="1:39" ht="68" x14ac:dyDescent="0.2">
-      <c r="A181" s="63"/>
+      <c r="A181" s="62"/>
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
       <c r="D181" s="25"/>
@@ -20910,14 +20903,14 @@
       <c r="AH181" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI181" s="66"/>
-      <c r="AJ181" s="66"/>
-      <c r="AK181" s="63"/>
+      <c r="AI181" s="68"/>
+      <c r="AJ181" s="68"/>
+      <c r="AK181" s="62"/>
       <c r="AL181" s="25"/>
-      <c r="AM181" s="63"/>
+      <c r="AM181" s="62"/>
     </row>
     <row r="182" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A182" s="63"/>
+      <c r="A182" s="62"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
       <c r="D182" s="25"/>
@@ -20987,14 +20980,14 @@
       <c r="AH182" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI182" s="66"/>
-      <c r="AJ182" s="66"/>
-      <c r="AK182" s="63"/>
+      <c r="AI182" s="68"/>
+      <c r="AJ182" s="68"/>
+      <c r="AK182" s="62"/>
       <c r="AL182" s="25"/>
-      <c r="AM182" s="63"/>
+      <c r="AM182" s="62"/>
     </row>
     <row r="183" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A183" s="63"/>
+      <c r="A183" s="62"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
       <c r="D183" s="25"/>
@@ -21062,14 +21055,14 @@
       <c r="AH183" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI183" s="66"/>
-      <c r="AJ183" s="66"/>
-      <c r="AK183" s="63"/>
+      <c r="AI183" s="68"/>
+      <c r="AJ183" s="68"/>
+      <c r="AK183" s="62"/>
       <c r="AL183" s="25"/>
-      <c r="AM183" s="63"/>
+      <c r="AM183" s="62"/>
     </row>
     <row r="184" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A184" s="63"/>
+      <c r="A184" s="62"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
       <c r="D184" s="25"/>
@@ -21137,14 +21130,14 @@
       <c r="AH184" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI184" s="66"/>
-      <c r="AJ184" s="66"/>
-      <c r="AK184" s="63"/>
+      <c r="AI184" s="68"/>
+      <c r="AJ184" s="68"/>
+      <c r="AK184" s="62"/>
       <c r="AL184" s="25"/>
-      <c r="AM184" s="63"/>
+      <c r="AM184" s="62"/>
     </row>
     <row r="185" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A185" s="63"/>
+      <c r="A185" s="62"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
       <c r="D185" s="25"/>
@@ -21212,14 +21205,14 @@
       <c r="AH185" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI185" s="66"/>
-      <c r="AJ185" s="66"/>
-      <c r="AK185" s="63"/>
+      <c r="AI185" s="68"/>
+      <c r="AJ185" s="68"/>
+      <c r="AK185" s="62"/>
       <c r="AL185" s="25"/>
-      <c r="AM185" s="63"/>
+      <c r="AM185" s="62"/>
     </row>
     <row r="186" spans="1:39" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A186" s="63">
+      <c r="A186" s="62">
         <v>46</v>
       </c>
       <c r="B186" s="25">
@@ -21277,7 +21270,7 @@
         <v>584</v>
       </c>
       <c r="T186" s="25" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U186" s="25" t="s">
         <v>585</v>
@@ -21319,22 +21312,22 @@
       <c r="AH186" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI186" s="63" t="s">
+      <c r="AI186" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AJ186" s="63" t="s">
+      <c r="AJ186" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AK186" s="63" t="s">
-        <v>1029</v>
+      <c r="AK186" s="62" t="s">
+        <v>1019</v>
       </c>
       <c r="AL186" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="AM186" s="63"/>
+      <c r="AM186" s="62"/>
     </row>
     <row r="187" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A187" s="63"/>
+      <c r="A187" s="62"/>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
       <c r="D187" s="25"/>
@@ -21364,7 +21357,7 @@
         <v>584</v>
       </c>
       <c r="T187" s="25" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U187" s="28" t="s">
         <v>685</v>
@@ -21406,14 +21399,14 @@
       <c r="AH187" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI187" s="63"/>
-      <c r="AJ187" s="63"/>
-      <c r="AK187" s="63"/>
+      <c r="AI187" s="62"/>
+      <c r="AJ187" s="62"/>
+      <c r="AK187" s="62"/>
       <c r="AL187" s="25"/>
-      <c r="AM187" s="63"/>
+      <c r="AM187" s="62"/>
     </row>
     <row r="188" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A188" s="63"/>
+      <c r="A188" s="62"/>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
       <c r="D188" s="25"/>
@@ -21443,7 +21436,7 @@
         <v>584</v>
       </c>
       <c r="T188" s="25" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U188" s="22" t="s">
         <v>585</v>
@@ -21485,14 +21478,14 @@
       <c r="AH188" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI188" s="63"/>
-      <c r="AJ188" s="63"/>
-      <c r="AK188" s="63"/>
+      <c r="AI188" s="62"/>
+      <c r="AJ188" s="62"/>
+      <c r="AK188" s="62"/>
       <c r="AL188" s="25"/>
-      <c r="AM188" s="63"/>
+      <c r="AM188" s="62"/>
     </row>
     <row r="189" spans="1:39" s="1" customFormat="1" ht="187" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="63">
+      <c r="A189" s="62">
         <v>47</v>
       </c>
       <c r="B189" s="25" t="s">
@@ -21568,7 +21561,7 @@
         <v>201</v>
       </c>
       <c r="AB189" s="22" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
       <c r="AC189" s="25" t="s">
         <v>663</v>
@@ -21588,22 +21581,22 @@
       <c r="AH189" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI189" s="63" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AJ189" s="63" t="s">
+      <c r="AI189" s="62" t="s">
         <v>1012</v>
       </c>
-      <c r="AK189" s="66" t="s">
-        <v>1136</v>
+      <c r="AJ189" s="62" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AK189" s="68" t="s">
+        <v>1170</v>
       </c>
       <c r="AL189" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="AM189" s="63"/>
+      <c r="AM189" s="62"/>
     </row>
     <row r="190" spans="1:39" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A190" s="63"/>
+      <c r="A190" s="62"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
       <c r="D190" s="25"/>
@@ -21671,11 +21664,11 @@
       <c r="AH190" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI190" s="63"/>
-      <c r="AJ190" s="63"/>
-      <c r="AK190" s="66"/>
+      <c r="AI190" s="62"/>
+      <c r="AJ190" s="62"/>
+      <c r="AK190" s="68"/>
       <c r="AL190" s="25"/>
-      <c r="AM190" s="63"/>
+      <c r="AM190" s="62"/>
     </row>
     <row r="191" spans="1:39" s="1" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A191" s="25">
@@ -21762,10 +21755,10 @@
         <v>666</v>
       </c>
       <c r="AD191" s="25" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="AE191" s="25" t="s">
-        <v>233</v>
+        <v>1144</v>
       </c>
       <c r="AF191" s="25" t="s">
         <v>138</v>
@@ -21783,7 +21776,7 @@
         <v>114</v>
       </c>
       <c r="AK191" s="25" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="AL191" s="25" t="s">
         <v>600</v>
@@ -21791,7 +21784,7 @@
       <c r="AM191" s="25"/>
     </row>
     <row r="192" spans="1:39" s="1" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="63">
+      <c r="A192" s="62">
         <v>49</v>
       </c>
       <c r="B192" s="25">
@@ -21876,7 +21869,7 @@
         <v>115</v>
       </c>
       <c r="AE192" s="25" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="AF192" s="25" t="s">
         <v>481</v>
@@ -21887,24 +21880,24 @@
       <c r="AH192" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="AI192" s="63" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AJ192" s="63" t="s">
+      <c r="AI192" s="62" t="s">
         <v>1015</v>
       </c>
-      <c r="AK192" s="63" t="s">
-        <v>1026</v>
+      <c r="AJ192" s="62" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AK192" s="62" t="s">
+        <v>1018</v>
       </c>
       <c r="AL192" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="AM192" s="63" t="s">
+      <c r="AM192" s="62" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="193" spans="1:40" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A193" s="63"/>
+      <c r="A193" s="62"/>
       <c r="B193" s="25"/>
       <c r="C193" s="25"/>
       <c r="D193" s="25"/>
@@ -21961,7 +21954,7 @@
         <v>115</v>
       </c>
       <c r="AE193" s="25" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="AF193" s="25" t="s">
         <v>270</v>
@@ -21972,14 +21965,14 @@
       <c r="AH193" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="AI193" s="63"/>
-      <c r="AJ193" s="63"/>
-      <c r="AK193" s="63"/>
+      <c r="AI193" s="62"/>
+      <c r="AJ193" s="62"/>
+      <c r="AK193" s="62"/>
       <c r="AL193" s="25"/>
-      <c r="AM193" s="63"/>
+      <c r="AM193" s="62"/>
     </row>
     <row r="194" spans="1:40" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A194" s="63"/>
+      <c r="A194" s="62"/>
       <c r="B194" s="25"/>
       <c r="C194" s="25"/>
       <c r="D194" s="25"/>
@@ -22036,7 +22029,7 @@
         <v>115</v>
       </c>
       <c r="AE194" s="25" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="AF194" s="25" t="s">
         <v>593</v>
@@ -22047,14 +22040,14 @@
       <c r="AH194" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="AI194" s="63"/>
-      <c r="AJ194" s="63"/>
-      <c r="AK194" s="63"/>
+      <c r="AI194" s="62"/>
+      <c r="AJ194" s="62"/>
+      <c r="AK194" s="62"/>
       <c r="AL194" s="25"/>
-      <c r="AM194" s="63"/>
+      <c r="AM194" s="62"/>
     </row>
     <row r="195" spans="1:40" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A195" s="63"/>
+      <c r="A195" s="62"/>
       <c r="B195" s="25"/>
       <c r="C195" s="25"/>
       <c r="D195" s="25"/>
@@ -22111,7 +22104,7 @@
         <v>115</v>
       </c>
       <c r="AE195" s="25" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="AF195" s="25" t="s">
         <v>480</v>
@@ -22122,21 +22115,21 @@
       <c r="AH195" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="AI195" s="63"/>
-      <c r="AJ195" s="63"/>
-      <c r="AK195" s="63"/>
+      <c r="AI195" s="62"/>
+      <c r="AJ195" s="62"/>
+      <c r="AK195" s="62"/>
       <c r="AL195" s="25"/>
-      <c r="AM195" s="63"/>
+      <c r="AM195" s="62"/>
     </row>
     <row r="196" spans="1:40" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A196" s="63">
+      <c r="A196" s="62">
         <v>50</v>
       </c>
       <c r="B196" s="25">
         <v>105504713</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>1137</v>
+        <v>1117</v>
       </c>
       <c r="D196" s="29" t="s">
         <v>610</v>
@@ -22225,22 +22218,22 @@
       <c r="AH196" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI196" s="63" t="s">
-        <v>987</v>
-      </c>
-      <c r="AJ196" s="63" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AK196" s="63" t="s">
-        <v>1025</v>
+      <c r="AI196" s="62" t="s">
+        <v>986</v>
+      </c>
+      <c r="AJ196" s="62" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AK196" s="62" t="s">
+        <v>1171</v>
       </c>
       <c r="AL196" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="AM196" s="63"/>
+      <c r="AM196" s="62"/>
     </row>
     <row r="197" spans="1:40" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A197" s="63"/>
+      <c r="A197" s="62"/>
       <c r="B197" s="25"/>
       <c r="C197" s="25"/>
       <c r="D197" s="25"/>
@@ -22308,27 +22301,27 @@
       <c r="AH197" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="AI197" s="63"/>
-      <c r="AJ197" s="63"/>
-      <c r="AK197" s="63"/>
+      <c r="AI197" s="62"/>
+      <c r="AJ197" s="62"/>
+      <c r="AK197" s="62"/>
       <c r="AL197" s="25"/>
-      <c r="AM197" s="63"/>
+      <c r="AM197" s="62"/>
     </row>
     <row r="198" spans="1:40" s="16" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A198" s="62">
+      <c r="A198" s="63">
         <v>51</v>
       </c>
       <c r="B198" s="26">
         <v>105504569</v>
       </c>
       <c r="C198" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="D198" s="22" t="s">
         <v>961</v>
       </c>
-      <c r="D198" s="22" t="s">
+      <c r="E198" s="22" t="s">
         <v>962</v>
-      </c>
-      <c r="E198" s="22" t="s">
-        <v>963</v>
       </c>
       <c r="F198" s="22">
         <v>2023</v>
@@ -22340,7 +22333,7 @@
         <v>1</v>
       </c>
       <c r="I198" s="22" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J198" s="26">
         <v>6</v>
@@ -22370,13 +22363,13 @@
         <v>1</v>
       </c>
       <c r="S198" s="22" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="T198" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U198" s="22" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="V198" s="26" t="s">
         <v>58</v>
@@ -22411,25 +22404,25 @@
         <v>-0.47</v>
       </c>
       <c r="AH198" s="22" t="s">
-        <v>969</v>
-      </c>
-      <c r="AI198" s="62" t="s">
+        <v>968</v>
+      </c>
+      <c r="AI198" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AJ198" s="62" t="s">
+      <c r="AJ198" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AK198" s="62" t="s">
-        <v>1029</v>
+      <c r="AK198" s="63" t="s">
+        <v>1019</v>
       </c>
       <c r="AL198" s="22" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AM198" s="26"/>
       <c r="AN198" s="24"/>
     </row>
     <row r="199" spans="1:40" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A199" s="62"/>
+      <c r="A199" s="63"/>
       <c r="B199" s="26"/>
       <c r="C199" s="26"/>
       <c r="D199" s="26"/>
@@ -22440,7 +22433,7 @@
         <v>2</v>
       </c>
       <c r="I199" s="22" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J199" s="26">
         <v>6</v>
@@ -22456,13 +22449,13 @@
       </c>
       <c r="R199" s="26"/>
       <c r="S199" s="22" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="T199" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U199" s="22" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="V199" s="26" t="s">
         <v>58</v>
@@ -22483,7 +22476,7 @@
         <v>9</v>
       </c>
       <c r="AB199" s="22" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AC199" s="26" t="s">
         <v>665</v>
@@ -22499,28 +22492,28 @@
       <c r="AH199" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="AI199" s="62"/>
-      <c r="AJ199" s="62"/>
-      <c r="AK199" s="62"/>
+      <c r="AI199" s="63"/>
+      <c r="AJ199" s="63"/>
+      <c r="AK199" s="63"/>
       <c r="AL199" s="25"/>
       <c r="AM199" s="26"/>
       <c r="AN199" s="24"/>
     </row>
     <row r="200" spans="1:40" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="63">
+      <c r="A200" s="62">
         <v>52</v>
       </c>
       <c r="B200" s="25">
         <v>105506809</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="F200" s="25">
         <v>2022</v>
@@ -22532,7 +22525,7 @@
         <v>1</v>
       </c>
       <c r="I200" s="25" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="J200" s="25">
         <v>7</v>
@@ -22566,7 +22559,7 @@
       </c>
       <c r="T200" s="25"/>
       <c r="U200" s="25" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="V200" s="25" t="s">
         <v>58</v>
@@ -22590,7 +22583,7 @@
       </c>
       <c r="AD200" s="25"/>
       <c r="AE200" s="25" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="AF200" s="25" t="s">
         <v>253</v>
@@ -22601,22 +22594,22 @@
       <c r="AH200" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI200" s="63" t="s">
+      <c r="AI200" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AJ200" s="63" t="s">
+      <c r="AJ200" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AK200" s="63" t="s">
-        <v>1029</v>
+      <c r="AK200" s="62" t="s">
+        <v>1019</v>
       </c>
       <c r="AL200" s="25" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AM200" s="63"/>
+        <v>1070</v>
+      </c>
+      <c r="AM200" s="62"/>
     </row>
     <row r="201" spans="1:40" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A201" s="63"/>
+      <c r="A201" s="62"/>
       <c r="B201" s="25"/>
       <c r="C201" s="25"/>
       <c r="D201" s="25"/>
@@ -22627,7 +22620,7 @@
         <v>2</v>
       </c>
       <c r="I201" s="25" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="J201" s="25">
         <v>3</v>
@@ -22647,7 +22640,7 @@
       </c>
       <c r="T201" s="25"/>
       <c r="U201" s="25" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="V201" s="25" t="s">
         <v>34</v>
@@ -22674,7 +22667,7 @@
         <v>666</v>
       </c>
       <c r="AD201" s="25" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="AE201" s="1" t="s">
         <v>233</v>
@@ -22688,14 +22681,14 @@
       <c r="AH201" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI201" s="63"/>
-      <c r="AJ201" s="63"/>
-      <c r="AK201" s="63"/>
+      <c r="AI201" s="62"/>
+      <c r="AJ201" s="62"/>
+      <c r="AK201" s="62"/>
       <c r="AL201" s="25"/>
-      <c r="AM201" s="63"/>
+      <c r="AM201" s="62"/>
     </row>
     <row r="202" spans="1:40" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A202" s="63"/>
+      <c r="A202" s="62"/>
       <c r="B202" s="25"/>
       <c r="C202" s="25"/>
       <c r="D202" s="25"/>
@@ -22706,7 +22699,7 @@
         <v>3</v>
       </c>
       <c r="I202" s="25" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="J202" s="25">
         <v>4</v>
@@ -22726,14 +22719,14 @@
       </c>
       <c r="T202" s="25"/>
       <c r="U202" s="25" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="V202" s="25" t="s">
         <v>58</v>
       </c>
       <c r="W202" s="25"/>
       <c r="X202" s="25" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="Y202" s="25"/>
       <c r="Z202" s="41" t="s">
@@ -22759,14 +22752,14 @@
       <c r="AH202" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AI202" s="63"/>
-      <c r="AJ202" s="63"/>
-      <c r="AK202" s="63"/>
+      <c r="AI202" s="62"/>
+      <c r="AJ202" s="62"/>
+      <c r="AK202" s="62"/>
       <c r="AL202" s="25"/>
-      <c r="AM202" s="63"/>
+      <c r="AM202" s="62"/>
     </row>
     <row r="203" spans="1:40" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="63"/>
+      <c r="A203" s="62"/>
       <c r="B203" s="26"/>
       <c r="C203" s="26"/>
       <c r="D203" s="26"/>
@@ -22777,7 +22770,7 @@
         <v>4</v>
       </c>
       <c r="I203" s="25" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="J203" s="26">
         <v>5</v>
@@ -22797,7 +22790,7 @@
       </c>
       <c r="T203" s="26"/>
       <c r="U203" s="26" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="V203" s="26" t="s">
         <v>58</v>
@@ -22830,14 +22823,14 @@
       <c r="AH203" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI203" s="63"/>
-      <c r="AJ203" s="63"/>
-      <c r="AK203" s="63"/>
+      <c r="AI203" s="62"/>
+      <c r="AJ203" s="62"/>
+      <c r="AK203" s="62"/>
       <c r="AL203" s="25"/>
-      <c r="AM203" s="63"/>
+      <c r="AM203" s="62"/>
     </row>
     <row r="204" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A204" s="63"/>
+      <c r="A204" s="62"/>
       <c r="B204" s="26"/>
       <c r="C204" s="26"/>
       <c r="D204" s="26"/>
@@ -22848,7 +22841,7 @@
         <v>5</v>
       </c>
       <c r="I204" s="25" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="J204" s="26">
         <v>3</v>
@@ -22868,7 +22861,7 @@
       </c>
       <c r="T204" s="26"/>
       <c r="U204" s="26" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="V204" s="26" t="s">
         <v>34</v>
@@ -22887,7 +22880,7 @@
         <v>9</v>
       </c>
       <c r="AB204" s="22" t="s">
-        <v>1138</v>
+        <v>1118</v>
       </c>
       <c r="AC204" s="26" t="s">
         <v>665</v>
@@ -22903,14 +22896,14 @@
       <c r="AH204" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="AI204" s="63"/>
-      <c r="AJ204" s="63"/>
-      <c r="AK204" s="63"/>
+      <c r="AI204" s="62"/>
+      <c r="AJ204" s="62"/>
+      <c r="AK204" s="62"/>
       <c r="AL204" s="25"/>
-      <c r="AM204" s="63"/>
+      <c r="AM204" s="62"/>
     </row>
     <row r="205" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A205" s="63"/>
+      <c r="A205" s="62"/>
       <c r="B205" s="26"/>
       <c r="C205" s="26"/>
       <c r="D205" s="26"/>
@@ -22921,7 +22914,7 @@
         <v>6</v>
       </c>
       <c r="I205" s="25" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="J205" s="26">
         <v>2</v>
@@ -22941,7 +22934,7 @@
       </c>
       <c r="T205" s="26"/>
       <c r="U205" s="26" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="V205" s="26" t="s">
         <v>34</v>
@@ -22960,7 +22953,7 @@
         <v>9</v>
       </c>
       <c r="AB205" s="22" t="s">
-        <v>1139</v>
+        <v>1119</v>
       </c>
       <c r="AC205" s="37" t="s">
         <v>711</v>
@@ -22976,14 +22969,14 @@
       <c r="AH205" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="AI205" s="63"/>
-      <c r="AJ205" s="63"/>
-      <c r="AK205" s="63"/>
+      <c r="AI205" s="62"/>
+      <c r="AJ205" s="62"/>
+      <c r="AK205" s="62"/>
       <c r="AL205" s="25"/>
-      <c r="AM205" s="63"/>
+      <c r="AM205" s="62"/>
     </row>
     <row r="206" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A206" s="63"/>
+      <c r="A206" s="62"/>
       <c r="B206" s="26"/>
       <c r="C206" s="26"/>
       <c r="D206" s="26"/>
@@ -22994,7 +22987,7 @@
         <v>7</v>
       </c>
       <c r="I206" s="25" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="J206" s="26">
         <v>2</v>
@@ -23014,7 +23007,7 @@
       </c>
       <c r="T206" s="26"/>
       <c r="U206" s="26" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="V206" s="26" t="s">
         <v>34</v>
@@ -23035,7 +23028,7 @@
         <v>9</v>
       </c>
       <c r="AB206" s="25" t="s">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="AC206" s="26" t="s">
         <v>665</v>
@@ -23043,7 +23036,7 @@
       <c r="AD206" s="26"/>
       <c r="AE206" s="26"/>
       <c r="AF206" s="26" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="AG206" s="26">
         <v>0.36</v>
@@ -23051,14 +23044,186 @@
       <c r="AH206" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AI206" s="63"/>
-      <c r="AJ206" s="63"/>
-      <c r="AK206" s="63"/>
+      <c r="AI206" s="62"/>
+      <c r="AJ206" s="62"/>
+      <c r="AK206" s="62"/>
       <c r="AL206" s="25"/>
-      <c r="AM206" s="63"/>
+      <c r="AM206" s="62"/>
+    </row>
+    <row r="207" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="G207" s="5">
+        <f>SUM(G2:G206)</f>
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="190">
+    <mergeCell ref="AI198:AI199"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AM6:AM10"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="AM24:AM26"/>
+    <mergeCell ref="A27:A44"/>
+    <mergeCell ref="AI27:AI44"/>
+    <mergeCell ref="AM27:AM44"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="AI15:AI20"/>
+    <mergeCell ref="AM15:AM20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="AI21:AI23"/>
+    <mergeCell ref="AM21:AM23"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="AI56:AI64"/>
+    <mergeCell ref="AM56:AM64"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="AI67:AI77"/>
+    <mergeCell ref="AM67:AM77"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="AI45:AI49"/>
+    <mergeCell ref="AM45:AM49"/>
+    <mergeCell ref="AI50:AI54"/>
+    <mergeCell ref="AM50:AM54"/>
+    <mergeCell ref="AJ21:AJ23"/>
+    <mergeCell ref="AK21:AK23"/>
+    <mergeCell ref="AJ27:AJ44"/>
+    <mergeCell ref="AK27:AK44"/>
+    <mergeCell ref="AJ45:AJ49"/>
+    <mergeCell ref="AK45:AK49"/>
+    <mergeCell ref="AJ50:AJ54"/>
+    <mergeCell ref="AK50:AK54"/>
+    <mergeCell ref="AJ56:AJ64"/>
+    <mergeCell ref="AK56:AK64"/>
+    <mergeCell ref="AM83:AM89"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="AI92:AI94"/>
+    <mergeCell ref="AM92:AM94"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="AI78:AI79"/>
+    <mergeCell ref="AM78:AM79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="AI80:AI82"/>
+    <mergeCell ref="AM80:AM82"/>
+    <mergeCell ref="AJ80:AJ82"/>
+    <mergeCell ref="AK80:AK82"/>
+    <mergeCell ref="AJ83:AJ89"/>
+    <mergeCell ref="AK83:AK89"/>
+    <mergeCell ref="AK92:AK94"/>
+    <mergeCell ref="AM109:AM111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="AI112:AI115"/>
+    <mergeCell ref="AM112:AM115"/>
+    <mergeCell ref="A95:A104"/>
+    <mergeCell ref="AI95:AI104"/>
+    <mergeCell ref="AM95:AM104"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="AI107:AI108"/>
+    <mergeCell ref="AM107:AM108"/>
+    <mergeCell ref="AJ112:AJ115"/>
+    <mergeCell ref="AK112:AK115"/>
+    <mergeCell ref="AJ107:AJ108"/>
+    <mergeCell ref="AK107:AK108"/>
+    <mergeCell ref="AJ109:AJ111"/>
+    <mergeCell ref="AK109:AK111"/>
+    <mergeCell ref="AJ95:AJ104"/>
+    <mergeCell ref="AK95:AK104"/>
+    <mergeCell ref="AM131:AM132"/>
+    <mergeCell ref="AI133:AI134"/>
+    <mergeCell ref="AM133:AM134"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="AI116:AI118"/>
+    <mergeCell ref="AM116:AM118"/>
+    <mergeCell ref="A120:A130"/>
+    <mergeCell ref="AI120:AI130"/>
+    <mergeCell ref="AM120:AM130"/>
+    <mergeCell ref="AL133:AL134"/>
+    <mergeCell ref="AJ116:AJ118"/>
+    <mergeCell ref="AK116:AK118"/>
+    <mergeCell ref="AJ120:AJ130"/>
+    <mergeCell ref="AK120:AK130"/>
+    <mergeCell ref="AJ131:AJ132"/>
+    <mergeCell ref="AK131:AK132"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="AM151:AM153"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="AI154:AI156"/>
+    <mergeCell ref="AM154:AM156"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="AI136:AI138"/>
+    <mergeCell ref="AM136:AM138"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="AI140:AI144"/>
+    <mergeCell ref="AM140:AM144"/>
+    <mergeCell ref="AL136:AL138"/>
+    <mergeCell ref="AJ154:AJ156"/>
+    <mergeCell ref="AK154:AK156"/>
+    <mergeCell ref="AJ136:AJ138"/>
+    <mergeCell ref="AK136:AK138"/>
+    <mergeCell ref="AJ140:AJ144"/>
+    <mergeCell ref="AK140:AK144"/>
+    <mergeCell ref="AJ145:AJ150"/>
+    <mergeCell ref="AK145:AK150"/>
+    <mergeCell ref="AJ151:AJ153"/>
+    <mergeCell ref="AM180:AM185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="AI186:AI188"/>
+    <mergeCell ref="AM186:AM188"/>
+    <mergeCell ref="A157:A168"/>
+    <mergeCell ref="AI157:AI168"/>
+    <mergeCell ref="AM157:AM168"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="AI172:AI176"/>
+    <mergeCell ref="AM172:AM176"/>
+    <mergeCell ref="AI177:AI179"/>
+    <mergeCell ref="AJ180:AJ185"/>
+    <mergeCell ref="AK180:AK185"/>
+    <mergeCell ref="AJ186:AJ188"/>
+    <mergeCell ref="AK186:AK188"/>
+    <mergeCell ref="AM196:AM197"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="AI189:AI190"/>
+    <mergeCell ref="AM189:AM190"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="AI192:AI195"/>
+    <mergeCell ref="AM192:AM195"/>
+    <mergeCell ref="AJ189:AJ190"/>
+    <mergeCell ref="AK189:AK190"/>
+    <mergeCell ref="AJ192:AJ195"/>
+    <mergeCell ref="AK192:AK195"/>
+    <mergeCell ref="AJ196:AJ197"/>
+    <mergeCell ref="AK196:AK197"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AJ6:AJ10"/>
+    <mergeCell ref="AK6:AK10"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AJ15:AJ20"/>
+    <mergeCell ref="AK15:AK20"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="AI196:AI197"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="AI180:AI185"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="AI145:AI150"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="AI151:AI153"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="AI131:AI132"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="AI109:AI111"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="AI83:AI89"/>
+    <mergeCell ref="A50:A55"/>
     <mergeCell ref="AI200:AI206"/>
     <mergeCell ref="AJ200:AJ206"/>
     <mergeCell ref="AK200:AK206"/>
@@ -23083,172 +23248,6 @@
     <mergeCell ref="AJ92:AJ94"/>
     <mergeCell ref="AJ133:AJ135"/>
     <mergeCell ref="AK133:AK135"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="AJ6:AJ10"/>
-    <mergeCell ref="AK6:AK10"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="AJ15:AJ20"/>
-    <mergeCell ref="AK15:AK20"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="AI196:AI197"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A185"/>
-    <mergeCell ref="AI180:AI185"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="AI145:AI150"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="AI151:AI153"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="AI131:AI132"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="AI109:AI111"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="AI83:AI89"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="AM196:AM197"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="AI189:AI190"/>
-    <mergeCell ref="AM189:AM190"/>
-    <mergeCell ref="A192:A195"/>
-    <mergeCell ref="AI192:AI195"/>
-    <mergeCell ref="AM192:AM195"/>
-    <mergeCell ref="AJ189:AJ190"/>
-    <mergeCell ref="AK189:AK190"/>
-    <mergeCell ref="AJ192:AJ195"/>
-    <mergeCell ref="AK192:AK195"/>
-    <mergeCell ref="AJ196:AJ197"/>
-    <mergeCell ref="AK196:AK197"/>
-    <mergeCell ref="AM180:AM185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="AI186:AI188"/>
-    <mergeCell ref="AM186:AM188"/>
-    <mergeCell ref="A157:A168"/>
-    <mergeCell ref="AI157:AI168"/>
-    <mergeCell ref="AM157:AM168"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="AI172:AI176"/>
-    <mergeCell ref="AM172:AM176"/>
-    <mergeCell ref="AI177:AI179"/>
-    <mergeCell ref="AJ180:AJ185"/>
-    <mergeCell ref="AK180:AK185"/>
-    <mergeCell ref="AJ186:AJ188"/>
-    <mergeCell ref="AK186:AK188"/>
-    <mergeCell ref="AM151:AM153"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="AI154:AI156"/>
-    <mergeCell ref="AM154:AM156"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="AI136:AI138"/>
-    <mergeCell ref="AM136:AM138"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="AI140:AI144"/>
-    <mergeCell ref="AM140:AM144"/>
-    <mergeCell ref="AL136:AL138"/>
-    <mergeCell ref="AJ154:AJ156"/>
-    <mergeCell ref="AK154:AK156"/>
-    <mergeCell ref="AJ136:AJ138"/>
-    <mergeCell ref="AK136:AK138"/>
-    <mergeCell ref="AJ140:AJ144"/>
-    <mergeCell ref="AK140:AK144"/>
-    <mergeCell ref="AJ145:AJ150"/>
-    <mergeCell ref="AK145:AK150"/>
-    <mergeCell ref="AJ151:AJ153"/>
-    <mergeCell ref="AM131:AM132"/>
-    <mergeCell ref="AI133:AI134"/>
-    <mergeCell ref="AM133:AM134"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="AI116:AI118"/>
-    <mergeCell ref="AM116:AM118"/>
-    <mergeCell ref="A120:A130"/>
-    <mergeCell ref="AI120:AI130"/>
-    <mergeCell ref="AM120:AM130"/>
-    <mergeCell ref="AL133:AL134"/>
-    <mergeCell ref="AJ116:AJ118"/>
-    <mergeCell ref="AK116:AK118"/>
-    <mergeCell ref="AJ120:AJ130"/>
-    <mergeCell ref="AK120:AK130"/>
-    <mergeCell ref="AJ131:AJ132"/>
-    <mergeCell ref="AK131:AK132"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="AM109:AM111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="AI112:AI115"/>
-    <mergeCell ref="AM112:AM115"/>
-    <mergeCell ref="A95:A104"/>
-    <mergeCell ref="AI95:AI104"/>
-    <mergeCell ref="AM95:AM104"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="AI107:AI108"/>
-    <mergeCell ref="AM107:AM108"/>
-    <mergeCell ref="AJ112:AJ115"/>
-    <mergeCell ref="AK112:AK115"/>
-    <mergeCell ref="AJ107:AJ108"/>
-    <mergeCell ref="AK107:AK108"/>
-    <mergeCell ref="AJ109:AJ111"/>
-    <mergeCell ref="AK109:AK111"/>
-    <mergeCell ref="AJ95:AJ104"/>
-    <mergeCell ref="AK95:AK104"/>
-    <mergeCell ref="AM83:AM89"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="AI92:AI94"/>
-    <mergeCell ref="AM92:AM94"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="AI78:AI79"/>
-    <mergeCell ref="AM78:AM79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="AI80:AI82"/>
-    <mergeCell ref="AM80:AM82"/>
-    <mergeCell ref="AJ80:AJ82"/>
-    <mergeCell ref="AK80:AK82"/>
-    <mergeCell ref="AJ83:AJ89"/>
-    <mergeCell ref="AK83:AK89"/>
-    <mergeCell ref="AK92:AK94"/>
-    <mergeCell ref="AJ21:AJ23"/>
-    <mergeCell ref="AK21:AK23"/>
-    <mergeCell ref="AJ27:AJ44"/>
-    <mergeCell ref="AK27:AK44"/>
-    <mergeCell ref="AJ45:AJ49"/>
-    <mergeCell ref="AK45:AK49"/>
-    <mergeCell ref="AJ50:AJ54"/>
-    <mergeCell ref="AK50:AK54"/>
-    <mergeCell ref="AJ56:AJ64"/>
-    <mergeCell ref="AK56:AK64"/>
-    <mergeCell ref="AM56:AM64"/>
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="AI67:AI77"/>
-    <mergeCell ref="AM67:AM77"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="AI45:AI49"/>
-    <mergeCell ref="AM45:AM49"/>
-    <mergeCell ref="AI50:AI54"/>
-    <mergeCell ref="AM50:AM54"/>
-    <mergeCell ref="AI198:AI199"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AM2:AM4"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AM6:AM10"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="AM24:AM26"/>
-    <mergeCell ref="A27:A44"/>
-    <mergeCell ref="AI27:AI44"/>
-    <mergeCell ref="AM27:AM44"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="AI15:AI20"/>
-    <mergeCell ref="AM15:AM20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="AI21:AI23"/>
-    <mergeCell ref="AM21:AM23"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="AI56:AI64"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -23287,6 +23286,7 @@
     <hyperlink ref="D196" r:id="rId30" xr:uid="{406732D9-503C-8145-9EBC-4F5EF82703F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId31"/>
 </worksheet>
 </file>
@@ -23297,7 +23297,7 @@
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA118" sqref="BA118"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23308,168 +23308,168 @@
   <sheetData>
     <row r="1" spans="1:53" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B1" s="61" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>734</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="D1" s="61" t="s">
         <v>735</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="E1" s="61" t="s">
         <v>736</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="F1" s="61" t="s">
         <v>737</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="G1" s="61" t="s">
         <v>738</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>739</v>
       </c>
       <c r="H1" s="61" t="s">
         <v>95</v>
       </c>
       <c r="I1" s="61" t="s">
+        <v>739</v>
+      </c>
+      <c r="J1" s="61" t="s">
         <v>740</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="K1" s="61" t="s">
         <v>741</v>
-      </c>
-      <c r="K1" s="61" t="s">
-        <v>742</v>
       </c>
       <c r="L1" s="61" t="s">
         <v>160</v>
       </c>
       <c r="M1" s="61" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N1" s="61" t="s">
         <v>187</v>
       </c>
       <c r="O1" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="P1" s="61" t="s">
         <v>744</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="Q1" s="61" t="s">
         <v>745</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="R1" s="61" t="s">
         <v>746</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="S1" s="61" t="s">
         <v>747</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="T1" s="61" t="s">
         <v>748</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="U1" s="61" t="s">
         <v>749</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="V1" s="61" t="s">
         <v>750</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="W1" s="61" t="s">
         <v>751</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="X1" s="61" t="s">
         <v>752</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="Y1" s="61" t="s">
         <v>753</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="Z1" s="61" t="s">
         <v>754</v>
       </c>
-      <c r="Z1" s="61" t="s">
+      <c r="AA1" s="61" t="s">
         <v>755</v>
       </c>
-      <c r="AA1" s="61" t="s">
+      <c r="AB1" s="61" t="s">
         <v>756</v>
       </c>
-      <c r="AB1" s="61" t="s">
+      <c r="AC1" s="61" t="s">
         <v>757</v>
       </c>
-      <c r="AC1" s="61" t="s">
+      <c r="AD1" s="61" t="s">
         <v>758</v>
       </c>
-      <c r="AD1" s="61" t="s">
+      <c r="AE1" s="61" t="s">
         <v>759</v>
       </c>
-      <c r="AE1" s="61" t="s">
+      <c r="AF1" s="61" t="s">
         <v>760</v>
       </c>
-      <c r="AF1" s="61" t="s">
+      <c r="AG1" s="61" t="s">
         <v>761</v>
       </c>
-      <c r="AG1" s="61" t="s">
+      <c r="AH1" s="61" t="s">
         <v>762</v>
       </c>
-      <c r="AH1" s="61" t="s">
+      <c r="AI1" s="61" t="s">
         <v>763</v>
       </c>
-      <c r="AI1" s="61" t="s">
+      <c r="AJ1" s="61" t="s">
         <v>764</v>
       </c>
-      <c r="AJ1" s="61" t="s">
+      <c r="AK1" s="61" t="s">
         <v>765</v>
       </c>
-      <c r="AK1" s="61" t="s">
+      <c r="AL1" s="61" t="s">
         <v>766</v>
       </c>
-      <c r="AL1" s="61" t="s">
+      <c r="AM1" s="61" t="s">
         <v>767</v>
       </c>
-      <c r="AM1" s="61" t="s">
+      <c r="AN1" s="61" t="s">
         <v>768</v>
       </c>
-      <c r="AN1" s="61" t="s">
+      <c r="AO1" s="61" t="s">
         <v>769</v>
       </c>
-      <c r="AO1" s="61" t="s">
+      <c r="AP1" s="61" t="s">
         <v>770</v>
       </c>
-      <c r="AP1" s="61" t="s">
+      <c r="AQ1" s="61" t="s">
         <v>771</v>
       </c>
-      <c r="AQ1" s="61" t="s">
+      <c r="AR1" s="61" t="s">
         <v>772</v>
       </c>
-      <c r="AR1" s="61" t="s">
+      <c r="AS1" s="61" t="s">
         <v>773</v>
       </c>
-      <c r="AS1" s="61" t="s">
+      <c r="AT1" s="61" t="s">
         <v>774</v>
       </c>
-      <c r="AT1" s="61" t="s">
+      <c r="AU1" s="61" t="s">
         <v>775</v>
       </c>
-      <c r="AU1" s="61" t="s">
+      <c r="AV1" s="61" t="s">
         <v>776</v>
       </c>
-      <c r="AV1" s="61" t="s">
+      <c r="AW1" s="61" t="s">
         <v>777</v>
       </c>
-      <c r="AW1" s="61" t="s">
+      <c r="AX1" s="61" t="s">
         <v>778</v>
       </c>
-      <c r="AX1" s="61" t="s">
+      <c r="AY1" s="61" t="s">
         <v>779</v>
       </c>
-      <c r="AY1" s="61" t="s">
-        <v>780</v>
-      </c>
       <c r="AZ1" s="61" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="BA1" s="61" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="58" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B2" s="58">
         <v>1</v>
@@ -23630,7 +23630,7 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B3" s="58">
         <v>1</v>
@@ -23791,7 +23791,7 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B4" s="58">
         <v>1</v>
@@ -23952,7 +23952,7 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B5" s="58">
         <v>1</v>
@@ -24113,7 +24113,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="58" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B6" s="58">
         <v>1</v>
@@ -24274,7 +24274,7 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="58" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B7" s="58">
         <v>1</v>
@@ -24435,7 +24435,7 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B8" s="58">
         <v>1</v>
@@ -24596,7 +24596,7 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="58" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B9" s="58">
         <v>1</v>
@@ -24757,7 +24757,7 @@
     </row>
     <row r="10" spans="1:53" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="58" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B10" s="58">
         <v>1</v>
@@ -24918,7 +24918,7 @@
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="58" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B11" s="58">
         <v>1</v>
@@ -25079,7 +25079,7 @@
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="58" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B12" s="58">
         <v>1</v>
@@ -25240,7 +25240,7 @@
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="58" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B13" s="58">
         <v>0</v>
@@ -25401,7 +25401,7 @@
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="58" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B14" s="58">
         <v>0</v>
@@ -25562,7 +25562,7 @@
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="58" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B15" s="58">
         <v>0</v>
@@ -25723,7 +25723,7 @@
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="58" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B16" s="58">
         <v>0</v>
@@ -25884,7 +25884,7 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B17" s="58">
         <v>0</v>
@@ -26045,7 +26045,7 @@
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="58" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B18" s="58">
         <v>0</v>
@@ -26206,7 +26206,7 @@
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="58" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B19" s="58">
         <v>0</v>
@@ -26367,7 +26367,7 @@
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="58" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B20" s="58">
         <v>0</v>
@@ -26528,7 +26528,7 @@
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="58" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B21" s="58">
         <v>0</v>
@@ -26689,7 +26689,7 @@
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="58" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B22" s="58">
         <v>0</v>
@@ -26850,7 +26850,7 @@
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B23" s="58">
         <v>0</v>
@@ -27011,7 +27011,7 @@
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B24" s="58">
         <v>0</v>
@@ -27172,7 +27172,7 @@
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="58" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B25" s="58">
         <v>0</v>
@@ -27333,7 +27333,7 @@
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="58" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B26" s="58">
         <v>0</v>
@@ -27494,7 +27494,7 @@
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B27" s="58">
         <v>0</v>
@@ -27655,7 +27655,7 @@
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" s="58" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B28" s="58">
         <v>0</v>
@@ -27816,7 +27816,7 @@
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" s="58" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B29" s="58">
         <v>0</v>
@@ -27977,7 +27977,7 @@
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" s="58" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B30" s="58">
         <v>0</v>
@@ -28138,7 +28138,7 @@
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31" s="58" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B31" s="58">
         <v>0</v>
@@ -28299,7 +28299,7 @@
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A32" s="58" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B32" s="58">
         <v>0</v>
@@ -28460,7 +28460,7 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" s="58" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B33" s="58">
         <v>0</v>
@@ -28621,7 +28621,7 @@
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" s="58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B34" s="58">
         <v>0</v>
@@ -28782,7 +28782,7 @@
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A35" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B35" s="58">
         <v>0</v>
@@ -28943,7 +28943,7 @@
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A36" s="58" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B36" s="58">
         <v>0</v>
@@ -29104,7 +29104,7 @@
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A37" s="58" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B37" s="58">
         <v>0</v>
@@ -29265,7 +29265,7 @@
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38" s="58" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B38" s="58">
         <v>0</v>
@@ -29426,7 +29426,7 @@
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A39" s="58" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B39" s="58">
         <v>0</v>
@@ -29587,7 +29587,7 @@
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40" s="58" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B40" s="58">
         <v>0</v>
@@ -29748,7 +29748,7 @@
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" s="58" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B41" s="58">
         <v>0</v>
@@ -29909,7 +29909,7 @@
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" s="58" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B42" s="58">
         <v>0</v>
@@ -30070,7 +30070,7 @@
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A43" s="58" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B43" s="58">
         <v>0</v>
@@ -30231,7 +30231,7 @@
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A44" s="58" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B44" s="58">
         <v>0</v>
@@ -30392,7 +30392,7 @@
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A45" s="58" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B45" s="58">
         <v>0</v>
@@ -30553,7 +30553,7 @@
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A46" s="58" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B46" s="58">
         <v>0</v>
@@ -30714,7 +30714,7 @@
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A47" s="58" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B47" s="58">
         <v>0</v>
@@ -30875,7 +30875,7 @@
     </row>
     <row r="48" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A48" s="58" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B48" s="58">
         <v>0</v>
@@ -31036,7 +31036,7 @@
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A49" s="58" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B49" s="58">
         <v>0</v>
@@ -31197,7 +31197,7 @@
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A50" s="58" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B50" s="58">
         <v>0</v>
@@ -31358,7 +31358,7 @@
     </row>
     <row r="51" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A51" s="58" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B51" s="58">
         <v>0</v>
@@ -31519,7 +31519,7 @@
     </row>
     <row r="52" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A52" s="58" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B52" s="58">
         <v>0</v>
@@ -31680,7 +31680,7 @@
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A53" s="58" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B53" s="58">
         <v>0</v>
@@ -31841,7 +31841,7 @@
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A54" s="58" t="s">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="B54" s="58">
         <v>0</v>
@@ -32002,7 +32002,7 @@
     </row>
     <row r="55" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A55" s="58" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B55" s="58">
         <v>0</v>
@@ -32163,7 +32163,7 @@
     </row>
     <row r="56" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A56" s="58" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B56" s="58">
         <v>0</v>
@@ -32324,7 +32324,7 @@
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A57" s="58" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B57" s="58">
         <v>0</v>
@@ -32485,7 +32485,7 @@
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A58" s="58" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B58" s="58">
         <v>0</v>
@@ -32646,7 +32646,7 @@
     </row>
     <row r="59" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A59" s="58" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B59" s="58">
         <v>0</v>
@@ -32807,7 +32807,7 @@
     </row>
     <row r="60" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A60" s="58" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B60" s="58">
         <v>0</v>
@@ -32968,7 +32968,7 @@
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A61" s="58" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B61" s="58">
         <v>0</v>
@@ -33129,7 +33129,7 @@
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A62" s="58" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B62" s="58">
         <v>0</v>
@@ -33290,7 +33290,7 @@
     </row>
     <row r="63" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A63" s="58" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B63" s="58">
         <v>0</v>
@@ -33451,7 +33451,7 @@
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A64" s="58" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B64" s="58">
         <v>0</v>
@@ -33612,7 +33612,7 @@
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A65" s="58" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B65" s="58">
         <v>0</v>
@@ -33773,7 +33773,7 @@
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A66" s="58" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B66" s="58">
         <v>0</v>
@@ -33934,7 +33934,7 @@
     </row>
     <row r="67" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A67" s="58" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B67" s="58">
         <v>0</v>
@@ -34095,7 +34095,7 @@
     </row>
     <row r="68" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A68" s="58" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B68" s="58">
         <v>0</v>
@@ -34256,7 +34256,7 @@
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A69" s="58" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B69" s="58">
         <v>0</v>
@@ -34417,7 +34417,7 @@
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A70" s="58" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
       <c r="B70" s="58">
         <v>0</v>
@@ -34578,7 +34578,7 @@
     </row>
     <row r="71" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A71" s="58" t="s">
-        <v>1142</v>
+        <v>1122</v>
       </c>
       <c r="B71" s="58">
         <v>0</v>
@@ -34739,7 +34739,7 @@
     </row>
     <row r="72" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A72" s="58" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B72" s="58">
         <v>0</v>
@@ -34900,7 +34900,7 @@
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A73" s="58" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B73" s="58">
         <v>0</v>
@@ -35061,7 +35061,7 @@
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A74" s="58" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B74" s="58">
         <v>0</v>
@@ -35222,7 +35222,7 @@
     </row>
     <row r="75" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A75" s="58" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B75" s="58">
         <v>0</v>
@@ -35383,7 +35383,7 @@
     </row>
     <row r="76" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A76" s="58" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B76" s="58">
         <v>0</v>
@@ -35544,7 +35544,7 @@
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A77" s="58" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B77" s="58">
         <v>0</v>
@@ -35705,7 +35705,7 @@
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A78" s="58" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B78" s="58">
         <v>0</v>
@@ -35866,7 +35866,7 @@
     </row>
     <row r="79" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A79" s="58" t="s">
-        <v>1143</v>
+        <v>1123</v>
       </c>
       <c r="B79" s="58">
         <v>0</v>
@@ -36027,7 +36027,7 @@
     </row>
     <row r="80" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A80" s="58" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B80" s="58">
         <v>0</v>
@@ -36188,7 +36188,7 @@
     </row>
     <row r="81" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A81" s="58" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B81" s="58">
         <v>0</v>
@@ -36349,7 +36349,7 @@
     </row>
     <row r="82" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A82" s="58" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B82" s="58">
         <v>0</v>
@@ -36510,7 +36510,7 @@
     </row>
     <row r="83" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A83" s="58" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B83" s="58">
         <v>0</v>
@@ -36671,7 +36671,7 @@
     </row>
     <row r="84" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A84" s="58" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B84" s="58">
         <v>0</v>
@@ -36832,7 +36832,7 @@
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A85" s="58" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B85" s="58">
         <v>0</v>
@@ -36993,7 +36993,7 @@
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A86" s="58" t="s">
-        <v>1144</v>
+        <v>1124</v>
       </c>
       <c r="B86" s="58">
         <v>0</v>
@@ -37154,7 +37154,7 @@
     </row>
     <row r="87" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A87" s="58" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B87" s="58">
         <v>0</v>
@@ -37315,7 +37315,7 @@
     </row>
     <row r="88" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A88" s="58" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B88" s="58">
         <v>0</v>
@@ -37476,7 +37476,7 @@
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A89" s="58" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B89" s="58">
         <v>0</v>
@@ -37637,7 +37637,7 @@
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A90" s="58" t="s">
-        <v>1145</v>
+        <v>1125</v>
       </c>
       <c r="B90" s="58">
         <v>0</v>
@@ -37798,7 +37798,7 @@
     </row>
     <row r="91" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A91" s="58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B91" s="58">
         <v>0</v>
@@ -37959,7 +37959,7 @@
     </row>
     <row r="92" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A92" s="58" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B92" s="58">
         <v>0</v>
@@ -38120,7 +38120,7 @@
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A93" s="58" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B93" s="58">
         <v>0</v>
@@ -38281,7 +38281,7 @@
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A94" s="58" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B94" s="58">
         <v>0</v>
@@ -38442,7 +38442,7 @@
     </row>
     <row r="95" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A95" s="58" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B95" s="58">
         <v>0</v>
@@ -38603,7 +38603,7 @@
     </row>
     <row r="96" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A96" s="58" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B96" s="58">
         <v>0</v>
@@ -38764,7 +38764,7 @@
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A97" s="58" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B97" s="58">
         <v>0</v>
@@ -38925,7 +38925,7 @@
     </row>
     <row r="98" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A98" s="58" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B98" s="58">
         <v>0</v>
@@ -39086,7 +39086,7 @@
     </row>
     <row r="99" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A99" s="58" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B99" s="58">
         <v>0</v>
@@ -39247,7 +39247,7 @@
     </row>
     <row r="100" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A100" s="58" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B100" s="58">
         <v>0</v>
@@ -39408,7 +39408,7 @@
     </row>
     <row r="101" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A101" s="58" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B101" s="58">
         <v>0</v>
@@ -39569,7 +39569,7 @@
     </row>
     <row r="102" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A102" s="58" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B102" s="58">
         <v>0</v>
@@ -39730,7 +39730,7 @@
     </row>
     <row r="103" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A103" s="58" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B103" s="58">
         <v>0</v>
@@ -39891,7 +39891,7 @@
     </row>
     <row r="104" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A104" s="58" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B104" s="58">
         <v>0</v>
@@ -40052,7 +40052,7 @@
     </row>
     <row r="105" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A105" s="58" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B105" s="58">
         <v>0</v>
@@ -40213,7 +40213,7 @@
     </row>
     <row r="106" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A106" s="58" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B106" s="58">
         <v>0</v>
@@ -40374,7 +40374,7 @@
     </row>
     <row r="107" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A107" s="58" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B107" s="58">
         <v>0</v>
@@ -40535,7 +40535,7 @@
     </row>
     <row r="108" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A108" s="58" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B108" s="58">
         <v>0</v>
@@ -40696,7 +40696,7 @@
     </row>
     <row r="109" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A109" s="58" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B109" s="58">
         <v>0</v>
@@ -40857,7 +40857,7 @@
     </row>
     <row r="110" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A110" s="58" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B110" s="58">
         <v>0</v>
@@ -41018,7 +41018,7 @@
     </row>
     <row r="111" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A111" s="58" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B111" s="58">
         <v>0</v>
@@ -41173,13 +41173,11 @@
       <c r="AZ111" s="58">
         <v>0</v>
       </c>
-      <c r="BA111" s="58">
-        <v>0</v>
-      </c>
+      <c r="BA111" s="58"/>
     </row>
     <row r="112" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A112" s="58" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B112" s="58">
         <v>0</v>
@@ -41340,7 +41338,7 @@
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A113" s="58" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B113" s="58">
         <v>0</v>
@@ -41501,7 +41499,7 @@
     </row>
     <row r="114" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A114" s="58" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B114" s="58">
         <v>0</v>
@@ -41662,7 +41660,7 @@
     </row>
     <row r="115" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A115" s="58" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B115" s="58">
         <v>0</v>
@@ -41823,7 +41821,7 @@
     </row>
     <row r="116" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A116" s="58" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B116" s="58">
         <v>0</v>
@@ -41984,7 +41982,7 @@
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A117" s="58" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B117" s="58">
         <v>0</v>
@@ -42145,7 +42143,7 @@
     </row>
     <row r="118" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A118" s="58" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B118" s="58">
         <v>0</v>
@@ -42306,7 +42304,7 @@
     </row>
     <row r="119" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A119" s="58" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B119" s="58">
         <v>0</v>
@@ -42467,7 +42465,7 @@
     </row>
     <row r="120" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A120" s="58" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B120" s="58">
         <v>0</v>
@@ -42628,7 +42626,7 @@
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A121" s="58" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B121" s="58">
         <v>0</v>
@@ -42789,7 +42787,7 @@
     </row>
     <row r="122" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A122" s="58" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B122" s="58">
         <v>0</v>
@@ -42950,7 +42948,7 @@
     </row>
     <row r="123" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A123" s="58" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B123" s="58">
         <v>0</v>
@@ -43111,7 +43109,7 @@
     </row>
     <row r="124" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A124" s="59" t="s">
-        <v>1152</v>
+        <v>1132</v>
       </c>
       <c r="B124" s="58">
         <v>0</v>
@@ -43272,7 +43270,7 @@
     </row>
     <row r="125" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A125" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B125" s="58">
         <v>0</v>
@@ -43433,7 +43431,7 @@
     </row>
     <row r="126" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A126" s="58" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B126" s="58">
         <v>0</v>
@@ -43594,7 +43592,7 @@
     </row>
     <row r="127" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A127" s="58" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B127" s="58">
         <v>0</v>
@@ -43755,7 +43753,7 @@
     </row>
     <row r="128" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A128" s="58" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B128" s="58">
         <v>0</v>
@@ -43916,7 +43914,7 @@
     </row>
     <row r="129" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A129" s="58" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B129" s="58">
         <v>0</v>
@@ -44077,7 +44075,7 @@
     </row>
     <row r="130" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A130" s="58" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B130" s="58">
         <v>0</v>
@@ -44238,7 +44236,7 @@
     </row>
     <row r="131" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A131" s="58" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B131" s="58">
         <v>0</v>
@@ -44399,7 +44397,7 @@
     </row>
     <row r="132" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A132" s="58" t="s">
-        <v>1151</v>
+        <v>1131</v>
       </c>
       <c r="B132" s="58">
         <v>0</v>
@@ -44560,7 +44558,7 @@
     </row>
     <row r="133" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A133" s="58" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B133" s="58">
         <v>0</v>
@@ -44721,7 +44719,7 @@
     </row>
     <row r="134" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A134" s="58" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B134" s="58">
         <v>0</v>
@@ -44882,7 +44880,7 @@
     </row>
     <row r="135" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A135" s="58" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B135" s="58">
         <v>0</v>
@@ -45043,7 +45041,7 @@
     </row>
     <row r="136" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A136" s="58" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B136" s="58">
         <v>0</v>
@@ -45204,7 +45202,7 @@
     </row>
     <row r="137" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A137" s="58" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B137" s="58">
         <v>0</v>
@@ -45365,7 +45363,7 @@
     </row>
     <row r="138" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A138" s="58" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B138" s="58">
         <v>0</v>
@@ -45526,7 +45524,7 @@
     </row>
     <row r="139" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A139" s="58" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B139" s="58">
         <v>0</v>
@@ -45687,7 +45685,7 @@
     </row>
     <row r="140" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A140" s="58" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B140" s="58">
         <v>0</v>
@@ -45848,7 +45846,7 @@
     </row>
     <row r="141" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A141" s="58" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B141" s="58">
         <v>0</v>
@@ -46009,7 +46007,7 @@
     </row>
     <row r="142" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A142" s="58" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B142" s="58">
         <v>0</v>
@@ -46170,7 +46168,7 @@
     </row>
     <row r="143" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A143" s="58" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B143" s="58">
         <v>0</v>
@@ -46331,7 +46329,7 @@
     </row>
     <row r="144" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A144" s="58" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B144" s="58">
         <v>0</v>
@@ -46492,7 +46490,7 @@
     </row>
     <row r="145" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A145" s="58" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B145" s="58">
         <v>0</v>
@@ -46653,7 +46651,7 @@
     </row>
     <row r="146" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A146" s="58" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B146" s="58">
         <v>0</v>
@@ -46814,7 +46812,7 @@
     </row>
     <row r="147" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A147" s="58" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B147" s="58">
         <v>0</v>
@@ -46975,7 +46973,7 @@
     </row>
     <row r="148" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A148" s="58" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B148" s="58">
         <v>0</v>
@@ -47136,7 +47134,7 @@
     </row>
     <row r="149" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A149" s="58" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B149" s="58">
         <v>0</v>
@@ -47297,7 +47295,7 @@
     </row>
     <row r="150" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A150" s="58" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="B150" s="58">
         <v>0</v>
@@ -47458,7 +47456,7 @@
     </row>
     <row r="151" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A151" s="58" t="s">
-        <v>1143</v>
+        <v>1123</v>
       </c>
       <c r="B151" s="58">
         <v>0</v>
@@ -47619,7 +47617,7 @@
     </row>
     <row r="152" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A152" s="58" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B152" s="58">
         <v>0</v>
@@ -47780,7 +47778,7 @@
     </row>
     <row r="153" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A153" s="58" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B153" s="58">
         <v>0</v>
@@ -47941,7 +47939,7 @@
     </row>
     <row r="154" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A154" s="58" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B154" s="58">
         <v>0</v>
@@ -48102,7 +48100,7 @@
     </row>
     <row r="155" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A155" s="58" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B155" s="58">
         <v>0</v>
@@ -48263,7 +48261,7 @@
     </row>
     <row r="156" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A156" s="58" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B156" s="58">
         <v>0</v>
@@ -48424,7 +48422,7 @@
     </row>
     <row r="157" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A157" s="58" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B157" s="58">
         <v>0</v>
@@ -48585,7 +48583,7 @@
     </row>
     <row r="158" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A158" s="58" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B158" s="58">
         <v>0</v>
@@ -48746,7 +48744,7 @@
     </row>
     <row r="159" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A159" s="58" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B159" s="58">
         <v>0</v>
@@ -48907,7 +48905,7 @@
     </row>
     <row r="160" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A160" s="58" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B160" s="58">
         <v>0</v>
@@ -49068,7 +49066,7 @@
     </row>
     <row r="161" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A161" s="58" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B161" s="58">
         <v>0</v>
@@ -49229,7 +49227,7 @@
     </row>
     <row r="162" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A162" s="58" t="s">
-        <v>1155</v>
+        <v>1135</v>
       </c>
       <c r="B162" s="58">
         <v>0</v>
@@ -49390,7 +49388,7 @@
     </row>
     <row r="163" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A163" s="58" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B163" s="58">
         <v>0</v>
@@ -49551,7 +49549,7 @@
     </row>
     <row r="164" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A164" s="58" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B164" s="58">
         <v>0</v>
@@ -49712,7 +49710,7 @@
     </row>
     <row r="165" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A165" s="58" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B165" s="58">
         <v>0</v>
@@ -49873,7 +49871,7 @@
     </row>
     <row r="166" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A166" s="58" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B166" s="58">
         <v>0</v>
@@ -50034,7 +50032,7 @@
     </row>
     <row r="167" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A167" s="58" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B167" s="58">
         <v>0</v>
@@ -50195,7 +50193,7 @@
     </row>
     <row r="168" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A168" s="58" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B168" s="58">
         <v>0</v>
@@ -50356,7 +50354,7 @@
     </row>
     <row r="169" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A169" s="58" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B169" s="58">
         <v>0</v>
@@ -50517,7 +50515,7 @@
     </row>
     <row r="170" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A170" s="58" t="s">
-        <v>1156</v>
+        <v>1136</v>
       </c>
       <c r="B170" s="58">
         <v>0</v>
@@ -50678,7 +50676,7 @@
     </row>
     <row r="171" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A171" s="58" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B171" s="58">
         <v>0</v>
@@ -50839,7 +50837,7 @@
     </row>
     <row r="172" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A172" s="58" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B172" s="58">
         <v>0</v>
@@ -51000,7 +50998,7 @@
     </row>
     <row r="173" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A173" s="58" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B173" s="58">
         <v>0</v>
@@ -51161,7 +51159,7 @@
     </row>
     <row r="174" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A174" s="58" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B174" s="58">
         <v>0</v>
@@ -51322,7 +51320,7 @@
     </row>
     <row r="175" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A175" s="58" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B175" s="58">
         <v>0</v>
@@ -51483,7 +51481,7 @@
     </row>
     <row r="176" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A176" s="58" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B176" s="58">
         <v>0</v>
@@ -51644,7 +51642,7 @@
     </row>
     <row r="177" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A177" s="58" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B177" s="58">
         <v>0</v>
@@ -51805,7 +51803,7 @@
     </row>
     <row r="178" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A178" s="58" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B178" s="58">
         <v>0</v>
@@ -51966,7 +51964,7 @@
     </row>
     <row r="179" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A179" s="58" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B179" s="58">
         <v>0</v>
@@ -52127,7 +52125,7 @@
     </row>
     <row r="180" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A180" s="58" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B180" s="58">
         <v>0</v>
@@ -52288,7 +52286,7 @@
     </row>
     <row r="181" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A181" s="58" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B181" s="58">
         <v>0</v>
@@ -52449,7 +52447,7 @@
     </row>
     <row r="182" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A182" s="58" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B182" s="58">
         <v>0</v>
@@ -52610,7 +52608,7 @@
     </row>
     <row r="183" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A183" s="58" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B183" s="58">
         <v>0</v>
@@ -52771,7 +52769,7 @@
     </row>
     <row r="184" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A184" s="58" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B184" s="58">
         <v>0</v>
@@ -52932,7 +52930,7 @@
     </row>
     <row r="185" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A185" s="58" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B185" s="58">
         <v>0</v>
@@ -53093,7 +53091,7 @@
     </row>
     <row r="186" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A186" s="58" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B186" s="58">
         <v>0</v>
@@ -53254,7 +53252,7 @@
     </row>
     <row r="187" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A187" s="58" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B187" s="58">
         <v>0</v>
@@ -53415,7 +53413,7 @@
     </row>
     <row r="188" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A188" s="58" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B188" s="58">
         <v>0</v>
@@ -53576,7 +53574,7 @@
     </row>
     <row r="189" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A189" s="58" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B189" s="58">
         <v>0</v>
@@ -53737,7 +53735,7 @@
     </row>
     <row r="190" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A190" s="58" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B190" s="58">
         <v>0</v>
@@ -53898,7 +53896,7 @@
     </row>
     <row r="191" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A191" s="58" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B191" s="58">
         <v>0</v>
@@ -54059,7 +54057,7 @@
     </row>
     <row r="192" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A192" s="58" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B192" s="58">
         <v>0</v>
@@ -54220,7 +54218,7 @@
     </row>
     <row r="193" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A193" s="58" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="B193" s="58">
         <v>0</v>
@@ -54381,7 +54379,7 @@
     </row>
     <row r="194" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A194" s="58" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="B194" s="58">
         <v>0</v>
@@ -54542,7 +54540,7 @@
     </row>
     <row r="195" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A195" s="58" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="B195" s="58">
         <v>0</v>
@@ -54703,7 +54701,7 @@
     </row>
     <row r="196" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A196" s="58" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="B196" s="58">
         <v>0</v>
@@ -54864,7 +54862,7 @@
     </row>
     <row r="197" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A197" s="58" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="B197" s="58">
         <v>0</v>
@@ -55025,7 +55023,7 @@
     </row>
     <row r="198" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A198" s="60" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="B198" s="58">
         <v>0</v>
@@ -55186,7 +55184,7 @@
     </row>
     <row r="199" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A199" s="60" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="B199" s="58">
         <v>0</v>
@@ -55347,7 +55345,7 @@
     </row>
     <row r="200" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A200" s="60" t="s">
-        <v>1149</v>
+        <v>1129</v>
       </c>
       <c r="B200" s="58">
         <v>0</v>
@@ -55508,7 +55506,7 @@
     </row>
     <row r="201" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A201" s="60" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="B201" s="58">
         <v>0</v>
@@ -55669,7 +55667,7 @@
     </row>
     <row r="202" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A202" s="60" t="s">
-        <v>1154</v>
+        <v>1134</v>
       </c>
       <c r="B202" s="58">
         <v>0</v>
@@ -55830,7 +55828,7 @@
     </row>
     <row r="203" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A203" s="60" t="s">
-        <v>1157</v>
+        <v>1137</v>
       </c>
       <c r="B203" s="58">
         <v>0</v>
@@ -55991,7 +55989,7 @@
     </row>
     <row r="204" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A204" s="59" t="s">
-        <v>1158</v>
+        <v>1138</v>
       </c>
       <c r="B204" s="58">
         <v>0</v>
@@ -56152,7 +56150,7 @@
     </row>
     <row r="205" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A205" s="60" t="s">
-        <v>1159</v>
+        <v>1139</v>
       </c>
       <c r="B205" s="58">
         <v>0</v>
@@ -56313,7 +56311,7 @@
     </row>
     <row r="206" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A206" s="58" t="s">
-        <v>1170</v>
+        <v>1148</v>
       </c>
       <c r="B206" s="58">
         <v>0</v>
@@ -56482,9 +56480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E555D4-E2D1-4D46-B9D7-FF72650800DB}">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
+    <sheetView zoomScale="117" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -56599,7 +56595,7 @@
         <v>660</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AD1" s="11" t="s">
         <v>657</v>
@@ -56617,13 +56613,13 @@
         <v>634</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AJ1" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="AK1" s="4" t="s">
         <v>991</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>992</v>
       </c>
       <c r="AL1" s="7" t="s">
         <v>658</v>
@@ -56634,109 +56630,109 @@
     </row>
     <row r="2" spans="1:39" ht="409.6" x14ac:dyDescent="0.2">
       <c r="D2" s="15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>1031</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>1032</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>1034</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>1033</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AI2" s="15" t="s">
         <v>1038</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AK2" s="15" t="s">
         <v>1039</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="AL2" s="15" t="s">
         <v>1040</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>1042</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>1043</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>1059</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>1045</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>1047</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>1061</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>1048</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>1049</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>1062</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>1051</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>1050</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>1063</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>1064</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AF2" s="15" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AI2" s="15" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AJ2" s="15" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AL2" s="15" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
